--- a/Housing/Rent.xlsx
+++ b/Housing/Rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\OneDrive\Documents\GitHub\Scroll\Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D5E05-7C95-448B-BD73-BF166A3D09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2E5E3-3E45-477B-925F-408DB4475937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IVY, THE - Women (now University View)</t>
-  </si>
-  <si>
     <t>Redstone Residential</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>Our 1,430 sq. feet apartments are located near campus and feature a full size washer and dryer in each apartment.  The apartments are complete with two full bathrooms, three bedrooms, and several storage areas.  Amenities include TWO FREE SHUTTLES to and from campus, large fitness center with dance and aerobic floor, two large lounges with kitchens and several study rooms.</t>
-  </si>
-  <si>
-    <t>MOUNTAIN LOFTS - WOMEN (now Lodge)</t>
   </si>
   <si>
     <t>South Fork Property Management</t>
@@ -195,9 +189,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>MOUNTAIN LOFTS - MEN (now Lodge)</t>
   </si>
   <si>
     <t>Designed with you in mind, we have up to 6 different floor plans to choose from, with a bathroom for each bedroom, a 5 level parking garage connecting every floor, memory foam mattresses, garbage shoots, a washer and dryer in every apartment, and the latest internet with an Optix router for each apartment. https://vimeo.com/155579284</t>
@@ -388,9 +379,6 @@
     <t>Southgate is a top-of-the-line affordable complex. Recently built it features some of the largest rooms in Rexburg with personal closets and separate bathrooms for each bedroom. There are 2 fridges and free washers and dryers in your apartment! We offer FREE parking! Reserve our 12 couch theater room or work out in our weight room. You?ll save hundreds on laundry, utilities and parking.Call today!</t>
   </si>
   <si>
-    <t>IVY, THE - Men (University View)</t>
-  </si>
-  <si>
     <t>208-356-6556</t>
   </si>
   <si>
@@ -704,9 +692,6 @@
     <t xml:space="preserve"> We offer housing for both men and women! We are well-known for our friendliness, new modern remodel, low prices, great location, our fantastically reliable OPTIX internet and amazing managers. You'll love having all Sunrise residents in your ward!  Now offering Unlimited Laundry each semester for $25!  We would love to have live with us and find out why everyone loves to live at Sunrise Village. </t>
   </si>
   <si>
-    <t>TUSCANY PLACE - MEN (Milano Flats)</t>
-  </si>
-  <si>
     <t>440 S 2ND W</t>
   </si>
   <si>
@@ -717,9 +702,6 @@
   </si>
   <si>
     <t>Private Bedrooms - In floor heating - Window AC Units - Free Laundry -Plenty of parking- Free Tanning Beds - Exercise Room - Music Room - 1 block from BYU-I Conference Center - 2 blocks from Manwaring Center - You will love Tuscany - your home away from home....</t>
-  </si>
-  <si>
-    <t>TUSCANY PLACE - WOMEN (Milano Flats)</t>
   </si>
   <si>
     <t>PINNACLE POINT</t>
@@ -1862,6 +1844,24 @@
   </si>
   <si>
     <t>Private rooms! Only 4 students per apartment.  Very well maintained and close to campus!!  We have plenty of parking, a nice lounge, a fantastic ward, and a long list of Redstone Residential amenities that include 2 swimming pools, theater room, free haircuts, and much more! Spots in West Winds get reserved extremely quickly, so sign up for your own private room NOW!</t>
+  </si>
+  <si>
+    <t>UNIVERSITY VIEW</t>
+  </si>
+  <si>
+    <t>LODGE - WOMEN</t>
+  </si>
+  <si>
+    <t>MILANO FLATS - MEN</t>
+  </si>
+  <si>
+    <t>MILANO FLATS - WOMEN</t>
+  </si>
+  <si>
+    <t>LODGE - MEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY VIEW - Men</t>
   </si>
 </sst>
 </file>
@@ -5797,8 +5797,8 @@
   <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5818,7 +5818,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5880,28 +5880,28 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>581</v>
       </c>
       <c r="B2">
         <v>636</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2">
         <v>1267.5</v>
@@ -5922,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2">
         <v>43.812376999999998</v>
@@ -5937,30 +5937,30 @@
         <v>3</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>582</v>
       </c>
       <c r="B3">
         <v>590</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1388</v>
@@ -5981,7 +5981,7 @@
         <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3">
         <v>43.814999999999998</v>
@@ -5996,21 +5996,21 @@
         <v>9</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>584</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4">
         <v>43.8211893</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>548</v>
@@ -6030,19 +6030,19 @@
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
       </c>
       <c r="K5">
         <v>1537.333333</v>
@@ -6063,7 +6063,7 @@
         <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R5">
         <v>43.822758</v>
@@ -6078,30 +6078,30 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>546</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1349</v>
@@ -6122,7 +6122,7 @@
         <v>12</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R6">
         <v>43.811830999999998</v>
@@ -6137,12 +6137,12 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>476</v>
@@ -6151,19 +6151,19 @@
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
       </c>
       <c r="K7">
         <v>1537.333333</v>
@@ -6184,7 +6184,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R7">
         <v>43.822758</v>
@@ -6199,33 +6199,33 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>585</v>
       </c>
       <c r="B8">
         <v>474</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <v>1323</v>
@@ -6246,7 +6246,7 @@
         <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R8">
         <v>43.814999999999998</v>
@@ -6261,27 +6261,27 @@
         <v>9</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>444</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>1495</v>
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R9">
         <v>43.821158599999997</v>
@@ -6317,21 +6317,21 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10">
         <v>43.819845000000001</v>
@@ -6342,28 +6342,28 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>1374</v>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R11">
         <v>43.812030900000003</v>
@@ -6399,27 +6399,27 @@
         <v>8</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12">
         <v>1345</v>
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R12">
         <v>43.8218672</v>
@@ -6455,12 +6455,12 @@
         <v>1</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>343</v>
@@ -6469,19 +6469,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13">
         <v>980</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R13">
         <v>43.820971700000001</v>
@@ -6517,33 +6517,33 @@
         <v>1</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>342</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K14">
         <v>1245</v>
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R14">
         <v>43.817690200000001</v>
@@ -6579,27 +6579,27 @@
         <v>8</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>342</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K15">
         <v>995</v>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R15">
         <v>43.819165699999999</v>
@@ -6635,30 +6635,30 @@
         <v>4</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>338</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>1279</v>
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R16">
         <v>43.815593100000001</v>
@@ -6694,30 +6694,30 @@
         <v>9</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>324</v>
       </c>
       <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>23</v>
       </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>1375</v>
@@ -6738,7 +6738,7 @@
         <v>3</v>
       </c>
       <c r="Q17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R17">
         <v>43.813549999999999</v>
@@ -6753,27 +6753,27 @@
         <v>7</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>324</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>961.66666599999996</v>
@@ -6794,7 +6794,7 @@
         <v>6</v>
       </c>
       <c r="Q18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R18">
         <v>43.818734399999997</v>
@@ -6809,27 +6809,27 @@
         <v>4</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>304</v>
       </c>
       <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" t="s">
-        <v>45</v>
       </c>
       <c r="K19">
         <v>1349</v>
@@ -6850,7 +6850,7 @@
         <v>6</v>
       </c>
       <c r="Q19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R19">
         <v>43.812246999999999</v>
@@ -6865,30 +6865,30 @@
         <v>10</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K20">
         <v>1374</v>
@@ -6909,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R20">
         <v>43.812168</v>
@@ -6924,30 +6924,30 @@
         <v>6</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>288</v>
       </c>
       <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K21">
         <v>1279</v>
@@ -6968,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R21">
         <v>43.815593100000001</v>
@@ -6983,30 +6983,30 @@
         <v>9</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22">
         <v>288</v>
       </c>
       <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K22">
         <v>1375</v>
@@ -7027,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R22">
         <v>43.811690900000002</v>
@@ -7042,30 +7042,30 @@
         <v>8</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>586</v>
       </c>
       <c r="B23">
         <v>264</v>
       </c>
       <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>1267.5</v>
@@ -7086,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="Q23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R23">
         <v>43.812376999999998</v>
@@ -7101,12 +7101,12 @@
         <v>3</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>252</v>
@@ -7115,16 +7115,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24">
         <v>999</v>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R24">
         <v>43.816576099999999</v>
@@ -7160,30 +7160,30 @@
         <v>10</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>1400</v>
@@ -7204,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R25">
         <v>43.813150999999998</v>
@@ -7213,15 +7213,15 @@
         <v>-111.792518</v>
       </c>
       <c r="U25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26">
         <v>238</v>
@@ -7230,16 +7230,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>896.66666599999996</v>
@@ -7260,7 +7260,7 @@
         <v>12</v>
       </c>
       <c r="Q26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R26">
         <v>43.817697500000001</v>
@@ -7275,30 +7275,30 @@
         <v>10</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>234</v>
       </c>
       <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>23</v>
       </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K27">
         <v>1129</v>
@@ -7319,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R27">
         <v>43.8246842</v>
@@ -7334,27 +7334,27 @@
         <v>4</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B28">
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K28">
         <v>1075</v>
@@ -7375,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R28">
         <v>43.820784799999998</v>
@@ -7390,27 +7390,27 @@
         <v>2</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29">
         <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K29">
         <v>900</v>
@@ -7431,7 +7431,7 @@
         <v>10</v>
       </c>
       <c r="Q29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="R29">
         <v>43.814649000000003</v>
@@ -7446,30 +7446,30 @@
         <v>6</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B30">
         <v>208</v>
       </c>
       <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>23</v>
       </c>
-      <c r="H30" t="s">
-        <v>24</v>
-      </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K30">
         <v>1585</v>
@@ -7490,7 +7490,7 @@
         <v>8</v>
       </c>
       <c r="Q30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R30">
         <v>43.822091999999998</v>
@@ -7505,30 +7505,30 @@
         <v>6</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B31">
         <v>200</v>
       </c>
       <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K31">
         <v>975</v>
@@ -7549,7 +7549,7 @@
         <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R31">
         <v>43.821872300000003</v>
@@ -7564,30 +7564,30 @@
         <v>1</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <v>192</v>
       </c>
       <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>23</v>
       </c>
-      <c r="H32" t="s">
-        <v>24</v>
-      </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K32">
         <v>1259</v>
@@ -7608,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R32">
         <v>43.817706399999999</v>
@@ -7623,30 +7623,30 @@
         <v>7</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B33">
         <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K33">
         <v>1325</v>
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R33">
         <v>43.817458000000002</v>
@@ -7682,12 +7682,12 @@
         <v>12</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B34">
         <v>180</v>
@@ -7696,16 +7696,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K34">
         <v>1110</v>
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R34">
         <v>43.816342200000001</v>
@@ -7741,30 +7741,30 @@
         <v>7</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B35">
         <v>180</v>
       </c>
       <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K35">
         <v>1189</v>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="Q35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R35">
         <v>43.817231999999997</v>
@@ -7800,30 +7800,30 @@
         <v>6</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36">
         <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K36">
         <v>1300</v>
@@ -7844,7 +7844,7 @@
         <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R36">
         <v>43.813150999999998</v>
@@ -7859,30 +7859,30 @@
         <v>8</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B37">
         <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K37">
         <v>1155</v>
@@ -7903,7 +7903,7 @@
         <v>10</v>
       </c>
       <c r="Q37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R37">
         <v>43.814118999999998</v>
@@ -7918,33 +7918,33 @@
         <v>6</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B38">
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K38">
         <v>1050</v>
@@ -7965,7 +7965,7 @@
         <v>6</v>
       </c>
       <c r="Q38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="R38">
         <v>43.822862800000003</v>
@@ -7980,30 +7980,30 @@
         <v>7</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B39">
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K39">
         <v>1445</v>
@@ -8024,7 +8024,7 @@
         <v>3</v>
       </c>
       <c r="Q39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R39">
         <v>43.823934199999997</v>
@@ -8039,30 +8039,30 @@
         <v>8</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B40">
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K40">
         <v>1200</v>
@@ -8083,7 +8083,7 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R40">
         <v>43.815652</v>
@@ -8098,36 +8098,36 @@
         <v>12</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B41">
         <v>144</v>
       </c>
       <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
         <v>22</v>
       </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R41">
         <v>43.821872300000003</v>
@@ -8157,27 +8157,27 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B42">
         <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K42">
         <v>1100</v>
@@ -8198,7 +8198,7 @@
         <v>20</v>
       </c>
       <c r="Q42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="R42">
         <v>43.814636700000001</v>
@@ -8213,27 +8213,27 @@
         <v>6</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B43">
         <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K43">
         <v>870</v>
@@ -8254,7 +8254,7 @@
         <v>3</v>
       </c>
       <c r="Q43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R43">
         <v>43.818871799999997</v>
@@ -8269,33 +8269,33 @@
         <v>7</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B44">
         <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
         <v>23</v>
       </c>
-      <c r="H44" t="s">
-        <v>24</v>
-      </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K44">
         <v>1000</v>
@@ -8316,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R44">
         <v>43.821860000000001</v>
@@ -8331,36 +8331,36 @@
         <v>1</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>583</v>
       </c>
       <c r="B45">
         <v>142</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>3</v>
       </c>
       <c r="Q45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R45">
         <v>43.817062399999998</v>
@@ -8390,30 +8390,30 @@
         <v>9</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>584</v>
       </c>
       <c r="B46">
         <v>142</v>
       </c>
       <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
         <v>23</v>
       </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s">
-        <v>24</v>
-      </c>
       <c r="I46" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J46" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K46">
         <v>1302.5</v>
@@ -8434,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="Q46" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R46">
         <v>43.817062399999998</v>
@@ -8449,30 +8449,30 @@
         <v>9</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B47">
         <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J47" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K47">
         <v>1046.25</v>
@@ -8493,7 +8493,7 @@
         <v>10</v>
       </c>
       <c r="Q47" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R47">
         <v>43.824505000000002</v>
@@ -8508,36 +8508,36 @@
         <v>9</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B48">
         <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s">
         <v>23</v>
       </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
       <c r="I48" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K48">
         <v>1125</v>
@@ -8558,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="Q48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="R48">
         <v>43.816321199999997</v>
@@ -8573,27 +8573,27 @@
         <v>4</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B49">
         <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J49">
         <v>2084177223</v>
@@ -8617,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="Q49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R49">
         <v>43.823934199999997</v>
@@ -8632,27 +8632,27 @@
         <v>8</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B50">
         <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J50" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K50">
         <v>1000</v>
@@ -8673,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R50">
         <v>43.821866</v>
@@ -8688,30 +8688,30 @@
         <v>1</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B51">
         <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K51">
         <v>1560</v>
@@ -8732,7 +8732,7 @@
         <v>6</v>
       </c>
       <c r="Q51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R51">
         <v>43.813510000000001</v>
@@ -8747,30 +8747,30 @@
         <v>4</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B52">
         <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
         <v>23</v>
       </c>
-      <c r="H52" t="s">
-        <v>24</v>
-      </c>
       <c r="I52" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J52" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K52">
         <v>1175</v>
@@ -8791,7 +8791,7 @@
         <v>10</v>
       </c>
       <c r="Q52" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="R52">
         <v>43.815739000000001</v>
@@ -8806,27 +8806,27 @@
         <v>12</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B53">
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J53" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K53">
         <v>1095</v>
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R53">
         <v>43.8187924</v>
@@ -8862,27 +8862,27 @@
         <v>1</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B54">
         <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J54" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K54">
         <v>1224</v>
@@ -8903,7 +8903,7 @@
         <v>3</v>
       </c>
       <c r="Q54" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R54">
         <v>43.8187924</v>
@@ -8918,12 +8918,12 @@
         <v>1</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B55">
         <v>108</v>
@@ -8932,16 +8932,16 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>1110</v>
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R55">
         <v>43.816342200000001</v>
@@ -8977,27 +8977,27 @@
         <v>7</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B56">
         <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J56" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K56">
         <v>1225</v>
@@ -9018,7 +9018,7 @@
         <v>10</v>
       </c>
       <c r="Q56" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R56">
         <v>43.813392100000002</v>
@@ -9033,33 +9033,33 @@
         <v>10</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B57">
         <v>100</v>
       </c>
       <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
         <v>23</v>
       </c>
-      <c r="H57" t="s">
-        <v>24</v>
-      </c>
       <c r="I57" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J57">
         <v>3604043</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L57" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>3</v>
       </c>
       <c r="Q57" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="R57">
         <v>43.820096900000003</v>
@@ -9089,24 +9089,24 @@
         <v>4</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B58">
         <v>97</v>
       </c>
       <c r="H58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J58" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K58">
         <v>1018.333333</v>
@@ -9139,12 +9139,12 @@
         <v>4</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B59">
         <v>96</v>
@@ -9153,16 +9153,16 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J59" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K59">
         <v>1345</v>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="Q59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R59">
         <v>43.815617099999997</v>
@@ -9198,27 +9198,27 @@
         <v>9</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B60">
         <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J60" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K60">
         <v>981</v>
@@ -9239,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="Q60" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R60">
         <v>43.823056000000001</v>
@@ -9254,12 +9254,12 @@
         <v>9</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B61">
         <v>86</v>
@@ -9268,16 +9268,16 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J61" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K61">
         <v>1310</v>
@@ -9298,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="Q61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R61">
         <v>43.816135299999999</v>
@@ -9313,27 +9313,27 @@
         <v>12</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B62">
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J62" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K62">
         <v>950</v>
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R62">
         <v>43.825077800000003</v>
@@ -9369,12 +9369,12 @@
         <v>5</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B63">
         <v>72</v>
@@ -9383,16 +9383,16 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J63" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K63">
         <v>995</v>
@@ -9413,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="Q63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R63">
         <v>43.819780999999999</v>
@@ -9428,30 +9428,30 @@
         <v>7</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B64">
         <v>72</v>
       </c>
       <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
         <v>22</v>
       </c>
-      <c r="F64" t="s">
-        <v>23</v>
-      </c>
       <c r="H64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K64">
         <v>1189</v>
@@ -9472,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R64">
         <v>43.8246842</v>
@@ -9487,24 +9487,24 @@
         <v>4</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B65">
         <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J65" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K65">
         <v>895</v>
@@ -9525,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="R65">
         <v>43.819764999999997</v>
@@ -9540,24 +9540,24 @@
         <v>4</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B66">
         <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K66">
         <v>1150</v>
@@ -9578,7 +9578,7 @@
         <v>6</v>
       </c>
       <c r="Q66" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="R66">
         <v>43.820138</v>
@@ -9593,24 +9593,24 @@
         <v>5</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K67">
         <v>1019</v>
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R67">
         <v>43.820971700000001</v>
@@ -9646,24 +9646,24 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B68">
         <v>64</v>
       </c>
       <c r="H68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J68" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K68">
         <v>850</v>
@@ -9684,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="R68">
         <v>43.817675199999996</v>
@@ -9699,24 +9699,24 @@
         <v>4</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B69">
         <v>64</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J69" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K69">
         <v>1125</v>
@@ -9737,7 +9737,7 @@
         <v>3</v>
       </c>
       <c r="Q69" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="R69">
         <v>43.821956999999998</v>
@@ -9752,12 +9752,12 @@
         <v>2</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B70">
         <v>60</v>
@@ -9766,16 +9766,16 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J70" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K70">
         <v>1310</v>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R70">
         <v>43.816135299999999</v>
@@ -9811,27 +9811,27 @@
         <v>12</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B71">
         <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J71" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K71">
         <v>955</v>
@@ -9852,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="Q71" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R71">
         <v>43.825077800000003</v>
@@ -9867,27 +9867,27 @@
         <v>5</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B72">
         <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J72" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K72">
         <v>995</v>
@@ -9908,7 +9908,7 @@
         <v>3</v>
       </c>
       <c r="Q72" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="R72">
         <v>43.8177035</v>
@@ -9923,27 +9923,27 @@
         <v>8</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B73">
         <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J73" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K73">
         <v>1300</v>
@@ -9964,7 +9964,7 @@
         <v>3</v>
       </c>
       <c r="Q73" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R73">
         <v>43.813392100000002</v>
@@ -9979,27 +9979,27 @@
         <v>10</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B74">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K74">
         <v>1222</v>
@@ -10020,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="Q74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="R74">
         <v>43.819758399999998</v>
@@ -10035,30 +10035,30 @@
         <v>5</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B75">
         <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K75">
         <v>1175</v>
@@ -10079,7 +10079,7 @@
         <v>10</v>
       </c>
       <c r="Q75" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="R75">
         <v>43.815739000000001</v>
@@ -10094,24 +10094,24 @@
         <v>12</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B76">
         <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J76">
         <v>2083565097</v>
@@ -10135,7 +10135,7 @@
         <v>3</v>
       </c>
       <c r="Q76" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="R76">
         <v>43.822203000000002</v>
@@ -10150,27 +10150,27 @@
         <v>6</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B77">
         <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J77" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K77">
         <v>972.5</v>
@@ -10191,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="Q77" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="R77">
         <v>43.828525900000002</v>
@@ -10206,24 +10206,24 @@
         <v>15</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B78">
         <v>53</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J78" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K78">
         <v>1216.6666660000001</v>
@@ -10244,7 +10244,7 @@
         <v>6</v>
       </c>
       <c r="Q78" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="R78">
         <v>43.815602400000003</v>
@@ -10259,24 +10259,24 @@
         <v>11</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B79">
         <v>50</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J79" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K79">
         <v>940</v>
@@ -10297,7 +10297,7 @@
         <v>3</v>
       </c>
       <c r="Q79" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="R79">
         <v>43.820940499999999</v>
@@ -10312,27 +10312,27 @@
         <v>5</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B80">
         <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J80" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K80">
         <v>925</v>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="R80">
         <v>43.823664000000001</v>
@@ -10368,27 +10368,27 @@
         <v>9</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B81">
         <v>48</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J81" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K81">
         <v>981</v>
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R81">
         <v>43.823056000000001</v>
@@ -10424,24 +10424,24 @@
         <v>9</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B82">
         <v>44</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J82" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K82">
         <v>1020</v>
@@ -10462,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="R82">
         <v>43.818505799999997</v>
@@ -10477,27 +10477,27 @@
         <v>5</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B83">
         <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J83" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K83">
         <v>1035</v>
@@ -10518,7 +10518,7 @@
         <v>3</v>
       </c>
       <c r="Q83" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R83">
         <v>43.816941800000002</v>
@@ -10533,27 +10533,27 @@
         <v>16</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B84">
         <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J84" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K84">
         <v>995</v>
@@ -10574,7 +10574,7 @@
         <v>6</v>
       </c>
       <c r="Q84" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="R84">
         <v>43.822581300000003</v>
@@ -10589,24 +10589,24 @@
         <v>4</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B85">
         <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J85" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K85">
         <v>950</v>
@@ -10627,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="R85">
         <v>43.823078600000002</v>
@@ -10642,27 +10642,27 @@
         <v>8</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B86">
         <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J86" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K86">
         <v>995</v>
@@ -10683,7 +10683,7 @@
         <v>6</v>
       </c>
       <c r="Q86" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R86">
         <v>43.8177393</v>
@@ -10698,24 +10698,24 @@
         <v>8</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B87">
         <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="J87" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K87">
         <v>995</v>
@@ -10736,7 +10736,7 @@
         <v>3</v>
       </c>
       <c r="Q87" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="R87">
         <v>43.819799600000003</v>
@@ -10751,24 +10751,24 @@
         <v>3</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B88">
         <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J88" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K88">
         <v>988</v>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="R88">
         <v>43.820143000000002</v>
@@ -10804,24 +10804,24 @@
         <v>4</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B89">
         <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J89" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K89">
         <v>1050</v>
@@ -10842,7 +10842,7 @@
         <v>10</v>
       </c>
       <c r="Q89" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="R89">
         <v>43.822282600000001</v>
@@ -10857,24 +10857,24 @@
         <v>7</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B90">
         <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J90" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K90">
         <v>1133.333333</v>
@@ -10895,7 +10895,7 @@
         <v>10</v>
       </c>
       <c r="Q90" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="R90">
         <v>43.822282600000001</v>
@@ -10910,24 +10910,24 @@
         <v>7</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B91">
         <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J91" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K91">
         <v>900</v>
@@ -10948,7 +10948,7 @@
         <v>10</v>
       </c>
       <c r="Q91" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="R91">
         <v>43.820494699999998</v>
@@ -10963,24 +10963,24 @@
         <v>5</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B92">
         <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J92" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K92">
         <v>895</v>
@@ -11001,7 +11001,7 @@
         <v>19</v>
       </c>
       <c r="Q92" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="R92">
         <v>43.8218751</v>
@@ -11016,27 +11016,27 @@
         <v>7</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B93">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J93" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K93">
         <v>998</v>
@@ -11057,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R93">
         <v>43.821860000000001</v>
@@ -11072,24 +11072,24 @@
         <v>5</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B94">
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J94" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K94">
         <v>1275</v>
@@ -11110,7 +11110,7 @@
         <v>3</v>
       </c>
       <c r="Q94" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R94">
         <v>43.820672999999999</v>
@@ -11125,24 +11125,24 @@
         <v>5</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B95">
         <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J95" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K95">
         <v>1250</v>
@@ -11163,7 +11163,7 @@
         <v>2</v>
       </c>
       <c r="Q95" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="R95">
         <v>43.815602400000003</v>
@@ -11178,24 +11178,24 @@
         <v>11</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B96">
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J96" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K96">
         <v>1261.6666660000001</v>
@@ -11216,7 +11216,7 @@
         <v>6</v>
       </c>
       <c r="Q96" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="R96">
         <v>43.819785099999997</v>
@@ -11231,24 +11231,24 @@
         <v>11</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B97">
         <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J97" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K97">
         <v>1410</v>
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R97">
         <v>43.815617099999997</v>
@@ -11284,24 +11284,24 @@
         <v>9</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B98">
         <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J98" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K98">
         <v>972.5</v>
@@ -11322,7 +11322,7 @@
         <v>10</v>
       </c>
       <c r="Q98" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="R98">
         <v>43.8197811</v>
@@ -11337,24 +11337,24 @@
         <v>8</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B99">
         <v>21</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J99" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K99">
         <v>925</v>
@@ -11375,7 +11375,7 @@
         <v>6</v>
       </c>
       <c r="Q99" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="R99">
         <v>43.817507499999998</v>
@@ -11390,30 +11390,30 @@
         <v>6</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B100">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J100" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K100" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L100" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -11428,7 +11428,7 @@
         <v>10</v>
       </c>
       <c r="Q100" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="R100">
         <v>43.821819099999999</v>
@@ -11443,24 +11443,24 @@
         <v>5</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B101">
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J101" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K101">
         <v>890</v>
@@ -11481,7 +11481,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="R101">
         <v>43.824663000000001</v>
@@ -11496,27 +11496,27 @@
         <v>6</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J102" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K102">
         <v>967</v>
@@ -11537,7 +11537,7 @@
         <v>3</v>
       </c>
       <c r="Q102" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="R102">
         <v>43.820059000000001</v>
@@ -11552,27 +11552,27 @@
         <v>4</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B103">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J103" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K103">
         <v>1120</v>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R103">
         <v>43.822228000000003</v>
@@ -11608,24 +11608,24 @@
         <v>5</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B104">
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J104" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K104">
         <v>1245</v>
@@ -11646,7 +11646,7 @@
         <v>3</v>
       </c>
       <c r="Q104" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="R104">
         <v>43.819785099999997</v>
@@ -11661,24 +11661,24 @@
         <v>11</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B105">
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J105" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K105">
         <v>925</v>
@@ -11699,7 +11699,7 @@
         <v>3</v>
       </c>
       <c r="Q105" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="R105">
         <v>43.820940499999999</v>
@@ -11714,24 +11714,24 @@
         <v>5</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B106">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J106" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K106">
         <v>880</v>
@@ -11764,24 +11764,24 @@
         <v>6</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B107">
         <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J107" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K107">
         <v>940</v>
@@ -11802,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="Q107" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="R107">
         <v>43.821311600000001</v>
@@ -11817,24 +11817,24 @@
         <v>6</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J108" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K108">
         <v>895</v>
@@ -11867,24 +11867,24 @@
         <v>5</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J109" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K109">
         <v>995</v>
@@ -11917,24 +11917,24 @@
         <v>5</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B110">
         <v>9</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I110" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J110" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K110">
         <v>1120</v>
@@ -11955,7 +11955,7 @@
         <v>3</v>
       </c>
       <c r="Q110" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R110">
         <v>43.823582999999999</v>
@@ -11970,24 +11970,24 @@
         <v>4</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B111">
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J111" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K111">
         <v>1125</v>
@@ -12008,7 +12008,7 @@
         <v>6</v>
       </c>
       <c r="Q111" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R111">
         <v>43.820267999999999</v>
@@ -12023,24 +12023,24 @@
         <v>2</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B112">
         <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I112" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J112" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K112">
         <v>1045</v>
@@ -12073,21 +12073,21 @@
         <v>5</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B113">
         <v>8</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J113">
         <v>7202574493</v>
@@ -12111,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="R113">
         <v>43.820385100000003</v>
@@ -12126,24 +12126,24 @@
         <v>3</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="H114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J114" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K114">
         <v>1010</v>
@@ -12164,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R114">
         <v>43.823926299999997</v>
@@ -12181,19 +12181,19 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B115">
         <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J115" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K115">
         <v>1150</v>
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="Q115" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="R115">
         <v>43.8218453</v>
@@ -12229,24 +12229,24 @@
         <v>5</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B116">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J116">
         <v>3563001</v>
@@ -12270,7 +12270,7 @@
         <v>3</v>
       </c>
       <c r="Q116" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="R116">
         <v>43.822054000000001</v>
@@ -12285,24 +12285,24 @@
         <v>4</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B117">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J117">
         <v>2083563001</v>
@@ -12326,7 +12326,7 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="R117">
         <v>43.822094</v>
@@ -12341,24 +12341,24 @@
         <v>4</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B118">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J118">
         <v>2083563001</v>
@@ -12382,7 +12382,7 @@
         <v>3</v>
       </c>
       <c r="Q118" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="R118">
         <v>43.822082999999999</v>
@@ -12397,24 +12397,24 @@
         <v>4</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B119">
         <v>7</v>
       </c>
       <c r="H119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J119" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K119">
         <v>975</v>
@@ -12435,7 +12435,7 @@
         <v>3</v>
       </c>
       <c r="Q119" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R119">
         <v>43.823955300000002</v>
@@ -12452,22 +12452,22 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J120" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K120">
         <v>980</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="R120">
         <v>43.821815299999997</v>
@@ -12503,30 +12503,30 @@
         <v>4</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B121">
         <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J121" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K121" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L121" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M121">
         <v>5</v>
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="Q121" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="R121">
         <v>43.818573100000002</v>
@@ -12556,24 +12556,24 @@
         <v>3</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B122">
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J122" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K122">
         <v>1120</v>
@@ -12594,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="Q122" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="R122">
         <v>43.819535999999999</v>
@@ -12609,24 +12609,24 @@
         <v>8</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B123">
         <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I123" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J123" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K123">
         <v>915</v>
@@ -12659,24 +12659,24 @@
         <v>4</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J124" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K124">
         <v>1062.5</v>
@@ -12709,24 +12709,24 @@
         <v>4</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J125" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K125">
         <v>1126</v>
@@ -12747,7 +12747,7 @@
         <v>3</v>
       </c>
       <c r="Q125" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="R125">
         <v>43.819796500000002</v>
@@ -12762,7 +12762,7 @@
         <v>4</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -12797,21 +12797,21 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>605</v>
@@ -12824,12 +12824,12 @@
         <v>12.991762063966037</v>
       </c>
       <c r="J4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>850</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>1187</v>
@@ -12858,12 +12858,12 @@
         <v>50.010217890865839</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>706</v>
@@ -12876,12 +12876,12 @@
         <v>17.691583679024589</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>954</v>
@@ -12894,12 +12894,12 @@
         <v>32.303833133279191</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B9">
         <v>313</v>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B10">
         <v>354</v>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>4134</v>
@@ -12938,12 +12938,12 @@
         <v>17</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>1435</v>
@@ -12956,12 +12956,12 @@
         <v>1100.808424617743</v>
       </c>
       <c r="J12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B13">
         <v>48</v>
@@ -12976,7 +12976,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1648</v>
@@ -12985,13 +12985,13 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D17" si="1">(B14/$B$18*100)^2</f>
+        <f t="shared" ref="D14:D16" si="1">(B14/$B$18*100)^2</f>
         <v>96.398821273338186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>396</v>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>648</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B17">
         <v>3507</v>
@@ -13029,7 +13029,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B18">
         <v>16785</v>
@@ -13068,168 +13068,168 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E27" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E28" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F28" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G28" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I28" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F30" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/Housing/Rent.xlsx
+++ b/Housing/Rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\OneDrive\Documents\GitHub\Scroll\Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2E5E3-3E45-477B-925F-408DB4475937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948432C5-C018-4495-8804-EE681C42B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5797,8 +5797,8 @@
   <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,114 +5880,105 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>129</v>
       </c>
       <c r="B2">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="K2">
-        <v>1267.5</v>
+        <v>1075</v>
       </c>
       <c r="L2">
-        <v>1330</v>
+        <v>1075</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="R2">
-        <v>43.812376999999998</v>
+        <v>43.820784799999998</v>
       </c>
       <c r="S2">
-        <v>-111.789553</v>
+        <v>-111.7867195</v>
       </c>
       <c r="T2">
-        <v>0.124274547</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>261</v>
       </c>
       <c r="B3">
-        <v>590</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="K3">
-        <v>1388</v>
+        <v>981</v>
       </c>
       <c r="L3">
-        <v>1557</v>
+        <v>981</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="R3">
-        <v>43.814999999999998</v>
+        <v>43.823056000000001</v>
       </c>
       <c r="S3">
-        <v>-111.791299</v>
+        <v>-111.779371</v>
       </c>
       <c r="T3">
         <v>0.43496091599999998</v>
@@ -5996,62 +5987,92 @@
         <v>9</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="B4">
-        <v>584</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+        <v>130</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4">
+        <v>1222</v>
+      </c>
+      <c r="L4">
+        <v>1369</v>
+      </c>
+      <c r="M4">
+        <v>54</v>
+      </c>
+      <c r="N4">
+        <v>150</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>315</v>
       </c>
       <c r="R4">
-        <v>43.8211893</v>
+        <v>43.819758399999998</v>
       </c>
       <c r="S4">
-        <v>-111.7915203</v>
+        <v>-111.78882900000001</v>
+      </c>
+      <c r="T4">
+        <v>0.248549095</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>321</v>
       </c>
       <c r="B5">
-        <v>548</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="K5">
-        <v>1537.333333</v>
+        <v>972.5</v>
       </c>
       <c r="L5">
-        <v>1669</v>
+        <v>995</v>
       </c>
       <c r="M5">
-        <v>508</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -6060,322 +6081,337 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="R5">
-        <v>43.822758</v>
+        <v>43.828525900000002</v>
       </c>
       <c r="S5">
-        <v>-111.78617</v>
+        <v>-111.779619</v>
       </c>
       <c r="T5">
-        <v>6.2137273999999999E-2</v>
+        <v>0.68351001</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="B6">
-        <v>546</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>337</v>
+      </c>
+      <c r="J6" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6">
+        <v>925</v>
+      </c>
+      <c r="L6">
+        <v>925</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>1349</v>
-      </c>
-      <c r="L6">
-        <v>1399</v>
-      </c>
-      <c r="M6">
-        <v>200</v>
-      </c>
-      <c r="N6">
-        <v>75</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="R6">
-        <v>43.811830999999998</v>
+        <v>43.823664000000001</v>
       </c>
       <c r="S6">
-        <v>-111.787004</v>
+        <v>-111.779473</v>
       </c>
       <c r="T6">
-        <v>0.36660991500000001</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="B7">
-        <v>476</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="K7">
-        <v>1537.333333</v>
+        <v>981</v>
       </c>
       <c r="L7">
-        <v>1669</v>
+        <v>981</v>
       </c>
       <c r="M7">
-        <v>508</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="R7">
-        <v>43.822758</v>
+        <v>43.823056000000001</v>
       </c>
       <c r="S7">
-        <v>-111.78617</v>
+        <v>-111.779371</v>
       </c>
       <c r="T7">
-        <v>6.2137273999999999E-2</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>39</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>585</v>
+        <v>397</v>
       </c>
       <c r="B8">
-        <v>474</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="K8">
-        <v>1323</v>
+        <v>998</v>
       </c>
       <c r="L8">
-        <v>1356</v>
+        <v>998</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="R8">
-        <v>43.814999999999998</v>
+        <v>43.821860000000001</v>
       </c>
       <c r="S8">
-        <v>-111.791299</v>
+        <v>-111.77909699999999</v>
       </c>
       <c r="T8">
-        <v>0.43496091599999998</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>48</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>430</v>
       </c>
       <c r="B9">
-        <v>444</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>431</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>432</v>
       </c>
       <c r="K9">
-        <v>1495</v>
+        <v>967</v>
       </c>
       <c r="L9">
-        <v>1495</v>
+        <v>967</v>
       </c>
       <c r="M9">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>433</v>
       </c>
       <c r="R9">
-        <v>43.821158599999997</v>
+        <v>43.820059000000001</v>
       </c>
       <c r="S9">
-        <v>-111.78671319999999</v>
+        <v>-111.788248</v>
       </c>
       <c r="T9">
-        <v>0.55302173600000004</v>
+        <v>0.248549095</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>53</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>435</v>
       </c>
       <c r="B10">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
+        <v>130</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10">
+        <v>1120</v>
+      </c>
+      <c r="L10">
+        <v>1120</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>125</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
       </c>
       <c r="R10">
-        <v>43.819845000000001</v>
+        <v>43.822228000000003</v>
       </c>
       <c r="S10">
-        <v>-111.7924811</v>
+        <v>-111.77922100000001</v>
+      </c>
+      <c r="T10">
+        <v>0.18641182100000001</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>486</v>
       </c>
       <c r="B11">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
+        <v>487</v>
+      </c>
+      <c r="J11">
+        <v>3563001</v>
       </c>
       <c r="K11">
-        <v>1374</v>
+        <v>1198</v>
       </c>
       <c r="L11">
-        <v>1399</v>
+        <v>1276</v>
       </c>
       <c r="M11">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -6384,54 +6420,54 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>488</v>
       </c>
       <c r="R11">
-        <v>43.812030900000003</v>
+        <v>43.822054000000001</v>
       </c>
       <c r="S11">
-        <v>-111.77585190000001</v>
+        <v>-111.77830400000001</v>
       </c>
       <c r="T11">
-        <v>0.43496091599999998</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>61</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>490</v>
       </c>
       <c r="B12">
-        <v>360</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
       </c>
       <c r="H12" t="s">
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
+        <v>398</v>
+      </c>
+      <c r="J12">
+        <v>2083563001</v>
       </c>
       <c r="K12">
-        <v>1345</v>
+        <v>1276</v>
       </c>
       <c r="L12">
-        <v>1345</v>
+        <v>1276</v>
       </c>
       <c r="M12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -6440,175 +6476,166 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>52</v>
+        <v>491</v>
       </c>
       <c r="R12">
-        <v>43.8218672</v>
+        <v>43.822094</v>
       </c>
       <c r="S12">
-        <v>-111.78724579999999</v>
+        <v>-111.778896</v>
       </c>
       <c r="T12">
-        <v>0.35418245999999998</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>65</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>493</v>
       </c>
       <c r="B13">
-        <v>343</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>69</v>
+        <v>494</v>
+      </c>
+      <c r="J13">
+        <v>2083563001</v>
       </c>
       <c r="K13">
-        <v>980</v>
+        <v>1198</v>
       </c>
       <c r="L13">
-        <v>980</v>
+        <v>1276</v>
       </c>
       <c r="M13">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N13">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>495</v>
       </c>
       <c r="R13">
-        <v>43.820971700000001</v>
+        <v>43.822082999999999</v>
       </c>
       <c r="S13">
-        <v>-111.78671629999999</v>
+        <v>-111.778657</v>
       </c>
       <c r="T13">
-        <v>6.2137273999999999E-2</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>71</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>342</v>
+        <v>546</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>1245</v>
+        <v>1349</v>
       </c>
       <c r="L14">
-        <v>1245</v>
+        <v>1399</v>
       </c>
       <c r="M14">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="N14">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14">
+        <v>43.811830999999998</v>
+      </c>
+      <c r="S14">
+        <v>-111.787004</v>
+      </c>
+      <c r="T14">
+        <v>0.36660991500000001</v>
+      </c>
+      <c r="U14">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14">
-        <v>43.817690200000001</v>
-      </c>
-      <c r="S14">
-        <v>-111.788803</v>
-      </c>
-      <c r="T14">
-        <v>0.37282364200000001</v>
-      </c>
-      <c r="U14">
-        <v>8</v>
-      </c>
       <c r="V14" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>995</v>
+        <v>1349</v>
       </c>
       <c r="L15">
-        <v>995</v>
+        <v>1399</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>75</v>
@@ -6617,95 +6644,56 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R15">
-        <v>43.819165699999999</v>
+        <v>43.812246999999999</v>
       </c>
       <c r="S15">
-        <v>-111.7869267</v>
+        <v>-111.78710100000001</v>
       </c>
       <c r="T15">
-        <v>0.18641182100000001</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16">
-        <v>1279</v>
-      </c>
-      <c r="L16">
-        <v>1279</v>
-      </c>
-      <c r="M16">
-        <v>300</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>86</v>
-      </c>
       <c r="R16">
-        <v>43.815593100000001</v>
+        <v>43.819845000000001</v>
       </c>
       <c r="S16">
-        <v>-111.7888627</v>
-      </c>
-      <c r="T16">
-        <v>0.37282364200000001</v>
-      </c>
-      <c r="U16">
-        <v>9</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>87</v>
+        <v>-111.7924811</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -6714,22 +6702,22 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K17">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="L17">
-        <v>1425</v>
+        <v>1450</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6738,51 +6726,51 @@
         <v>3</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="R17">
-        <v>43.813549999999999</v>
+        <v>43.813150999999998</v>
       </c>
       <c r="S17">
-        <v>-111.791355</v>
-      </c>
-      <c r="T17">
-        <v>0.31068636799999999</v>
-      </c>
-      <c r="U17">
-        <v>7</v>
+        <v>-111.792518</v>
+      </c>
+      <c r="U17" t="s">
+        <v>117</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B18">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="K18">
-        <v>961.66666599999996</v>
+        <v>1300</v>
       </c>
       <c r="L18">
-        <v>995</v>
+        <v>1300</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="N18">
         <v>75</v>
@@ -6791,54 +6779,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="R18">
-        <v>43.818734399999997</v>
+        <v>43.813150999999998</v>
       </c>
       <c r="S18">
-        <v>-111.7867224</v>
+        <v>-111.792518</v>
       </c>
       <c r="T18">
-        <v>0.248549095</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="B19">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
       <c r="H19" t="s">
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="K19">
-        <v>1349</v>
+        <v>1200</v>
       </c>
       <c r="L19">
-        <v>1399</v>
+        <v>1250</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>75</v>
@@ -6847,57 +6838,54 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="R19">
-        <v>43.812246999999999</v>
+        <v>43.815652</v>
       </c>
       <c r="S19">
-        <v>-111.78710100000001</v>
+        <v>-111.792396</v>
       </c>
       <c r="T19">
         <v>0.49709818900000002</v>
       </c>
       <c r="U19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="B20">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="K20">
-        <v>1374</v>
+        <v>1225</v>
       </c>
       <c r="L20">
-        <v>1399</v>
+        <v>1275</v>
       </c>
       <c r="M20">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="N20">
         <v>150</v>
@@ -6906,116 +6894,110 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="R20">
-        <v>43.812168</v>
+        <v>43.813392100000002</v>
       </c>
       <c r="S20">
-        <v>-111.778051</v>
+        <v>-111.7945301</v>
       </c>
       <c r="T20">
-        <v>0.248549095</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="B21">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="K21">
-        <v>1279</v>
+        <v>1300</v>
       </c>
       <c r="L21">
-        <v>1279</v>
+        <v>1325</v>
       </c>
       <c r="M21">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="R21">
-        <v>43.815593100000001</v>
+        <v>43.813392100000002</v>
       </c>
       <c r="S21">
-        <v>-111.7888627</v>
+        <v>-111.7945301</v>
       </c>
       <c r="T21">
-        <v>0.37282364200000001</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>354</v>
       </c>
       <c r="B22">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>356</v>
       </c>
       <c r="K22">
-        <v>1375</v>
+        <v>995</v>
       </c>
       <c r="L22">
-        <v>1425</v>
+        <v>995</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>100</v>
@@ -7024,57 +7006,54 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>357</v>
       </c>
       <c r="R22">
-        <v>43.811690900000002</v>
+        <v>43.822581300000003</v>
       </c>
       <c r="S22">
-        <v>-111.794504</v>
+        <v>-111.7838412</v>
       </c>
       <c r="T22">
-        <v>0.31068636799999999</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>364</v>
       </c>
       <c r="B23">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="K23">
-        <v>1267.5</v>
+        <v>995</v>
       </c>
       <c r="L23">
-        <v>1330</v>
+        <v>995</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>100</v>
@@ -7083,119 +7062,125 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="R23">
-        <v>43.812376999999998</v>
+        <v>43.8177393</v>
       </c>
       <c r="S23">
-        <v>-111.789553</v>
+        <v>-111.7886609</v>
       </c>
       <c r="T23">
-        <v>0.124274547</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>27</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="B24">
-        <v>252</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>180</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="K24">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="L24">
-        <v>999</v>
+        <v>1075</v>
       </c>
       <c r="M24">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="R24">
-        <v>43.816576099999999</v>
+        <v>43.822862800000003</v>
       </c>
       <c r="S24">
-        <v>-111.7895659</v>
+        <v>-111.7807632</v>
       </c>
       <c r="T24">
-        <v>0.43496091599999998</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="B25">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
         <v>22</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="K25">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L25">
-        <v>1450</v>
+        <v>1075</v>
       </c>
       <c r="M25">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="N25">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -7204,281 +7189,284 @@
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="R25">
-        <v>43.813150999999998</v>
+        <v>43.821860000000001</v>
       </c>
       <c r="S25">
-        <v>-111.792518</v>
-      </c>
-      <c r="U25" t="s">
-        <v>117</v>
+        <v>-111.785197</v>
+      </c>
+      <c r="T25">
+        <v>6.2137273999999999E-2</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="B26">
-        <v>238</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>180</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="K26">
-        <v>896.66666599999996</v>
+        <v>1125</v>
       </c>
       <c r="L26">
-        <v>960</v>
+        <v>1245</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N26">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="R26">
-        <v>43.817697500000001</v>
+        <v>43.816321199999997</v>
       </c>
       <c r="S26">
-        <v>-111.7906892</v>
+        <v>-111.7780659</v>
       </c>
       <c r="T26">
-        <v>0.49709818900000002</v>
+        <v>0.248549095</v>
       </c>
       <c r="U26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="B27">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K27">
-        <v>1129</v>
+        <v>1000</v>
       </c>
       <c r="L27">
-        <v>1129</v>
+        <v>1075</v>
       </c>
       <c r="M27">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="N27">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>209</v>
+      </c>
+      <c r="R27">
+        <v>43.821866</v>
+      </c>
+      <c r="S27">
+        <v>-111.7852097</v>
+      </c>
+      <c r="T27">
+        <v>6.2137273999999999E-2</v>
+      </c>
+      <c r="U27">
         <v>1</v>
       </c>
-      <c r="Q27" t="s">
-        <v>127</v>
-      </c>
-      <c r="R27">
-        <v>43.8246842</v>
-      </c>
-      <c r="S27">
-        <v>-111.7866669</v>
-      </c>
-      <c r="T27">
-        <v>0.18641182100000001</v>
-      </c>
-      <c r="U27">
-        <v>4</v>
-      </c>
       <c r="V27" s="1" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="B28">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="K28">
-        <v>1075</v>
+        <v>995</v>
       </c>
       <c r="L28">
-        <v>1075</v>
+        <v>1045</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="N28">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="R28">
-        <v>43.820784799999998</v>
+        <v>43.8177035</v>
       </c>
       <c r="S28">
-        <v>-111.7867195</v>
+        <v>-111.7886615</v>
       </c>
       <c r="T28">
-        <v>6.2137273999999999E-2</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="B29">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>574</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" t="s">
-        <v>137</v>
+        <v>181</v>
+      </c>
+      <c r="J29">
+        <v>2083565097</v>
       </c>
       <c r="K29">
-        <v>900</v>
+        <v>1202.5</v>
       </c>
       <c r="L29">
-        <v>1000</v>
+        <v>1380</v>
       </c>
       <c r="M29">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="R29">
-        <v>43.814649000000003</v>
+        <v>43.822203000000002</v>
       </c>
       <c r="S29">
-        <v>-111.778083</v>
+        <v>-111.780098</v>
       </c>
       <c r="T29">
-        <v>0.37282364200000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U29">
         <v>6</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B30">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
         <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>1585</v>
+        <v>995</v>
       </c>
       <c r="L30">
-        <v>1585</v>
+        <v>995</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>75</v>
@@ -7487,134 +7475,128 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="R30">
-        <v>43.822091999999998</v>
+        <v>43.819165699999999</v>
       </c>
       <c r="S30">
-        <v>-111.78069000000001</v>
+        <v>-111.7869267</v>
       </c>
       <c r="T30">
-        <v>0.31068636799999999</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="K31">
-        <v>975</v>
+        <v>961.66666599999996</v>
       </c>
       <c r="L31">
         <v>995</v>
       </c>
       <c r="M31">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="R31">
-        <v>43.821872300000003</v>
+        <v>43.818734399999997</v>
       </c>
       <c r="S31">
-        <v>-111.7878656</v>
+        <v>-111.7867224</v>
       </c>
       <c r="T31">
-        <v>6.2137273999999999E-2</v>
+        <v>0.248549095</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B32">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="K32">
-        <v>1259</v>
+        <v>870</v>
       </c>
       <c r="L32">
-        <v>1259</v>
+        <v>895</v>
       </c>
       <c r="M32">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="R32">
-        <v>43.817706399999999</v>
+        <v>43.818871799999997</v>
       </c>
       <c r="S32">
-        <v>-111.78814130000001</v>
+        <v>-111.7895166</v>
       </c>
       <c r="T32">
         <v>0.37282364200000001</v>
@@ -7623,42 +7605,39 @@
         <v>7</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="B33">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="K33">
-        <v>1325</v>
+        <v>950</v>
       </c>
       <c r="L33">
-        <v>1325</v>
+        <v>950</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -7667,54 +7646,51 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="R33">
-        <v>43.817458000000002</v>
+        <v>43.825077800000003</v>
       </c>
       <c r="S33">
-        <v>-111.792466</v>
+        <v>-111.7867042</v>
       </c>
       <c r="T33">
-        <v>0.62137273699999995</v>
+        <v>0.248549095</v>
       </c>
       <c r="U33">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="B34">
-        <v>180</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="K34">
-        <v>1110</v>
+        <v>955</v>
       </c>
       <c r="L34">
-        <v>1110</v>
+        <v>960</v>
       </c>
       <c r="M34">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N34">
         <v>75</v>
@@ -7723,36 +7699,36 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="R34">
-        <v>43.816342200000001</v>
+        <v>43.825077800000003</v>
       </c>
       <c r="S34">
-        <v>-111.78690589999999</v>
+        <v>-111.7867042</v>
       </c>
       <c r="T34">
-        <v>0.37282364200000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B35">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7761,78 +7737,78 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="K35">
-        <v>1189</v>
+        <v>1046.25</v>
       </c>
       <c r="L35">
-        <v>1189</v>
+        <v>1135</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N35">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q35" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="R35">
-        <v>43.817231999999997</v>
+        <v>43.824505000000002</v>
       </c>
       <c r="S35">
-        <v>-111.78743299999999</v>
+        <v>-111.780339</v>
       </c>
       <c r="T35">
-        <v>0.31068636799999999</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="B36">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="J36" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="K36">
-        <v>1300</v>
+        <v>1175</v>
       </c>
       <c r="L36">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M36">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>75</v>
@@ -7841,60 +7817,60 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q36" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="R36">
-        <v>43.813150999999998</v>
+        <v>43.815739000000001</v>
       </c>
       <c r="S36">
-        <v>-111.792518</v>
+        <v>-111.792608</v>
       </c>
       <c r="T36">
-        <v>0.37282364200000001</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="B37">
-        <v>168</v>
-      </c>
-      <c r="E37" t="s">
-        <v>174</v>
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="J37" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="K37">
-        <v>1155</v>
+        <v>1175</v>
       </c>
       <c r="L37">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="M37">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -7903,178 +7879,172 @@
         <v>10</v>
       </c>
       <c r="Q37" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="R37">
-        <v>43.814118999999998</v>
+        <v>43.815739000000001</v>
       </c>
       <c r="S37">
-        <v>-111.789569</v>
+        <v>-111.792608</v>
       </c>
       <c r="T37">
-        <v>0.248549095</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="B38">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" t="s">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="H38" t="s">
         <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="J38" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="K38">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="L38">
-        <v>1075</v>
+        <v>1000</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q38" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="R38">
-        <v>43.822862800000003</v>
+        <v>43.814649000000003</v>
       </c>
       <c r="S38">
-        <v>-111.7807632</v>
+        <v>-111.778083</v>
       </c>
       <c r="T38">
         <v>0.37282364200000001</v>
       </c>
       <c r="U38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B39">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J39" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K39">
-        <v>1445</v>
+        <v>1100</v>
       </c>
       <c r="L39">
-        <v>1495</v>
+        <v>1200</v>
       </c>
       <c r="M39">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="N39">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Q39" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="R39">
-        <v>43.823934199999997</v>
+        <v>43.814636700000001</v>
       </c>
       <c r="S39">
-        <v>-111.7773062</v>
+        <v>-111.7780764</v>
       </c>
       <c r="T39">
-        <v>0.31068636799999999</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="B40">
-        <v>148</v>
+        <v>636</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="K40">
-        <v>1200</v>
+        <v>1267.5</v>
       </c>
       <c r="L40">
-        <v>1250</v>
+        <v>1330</v>
       </c>
       <c r="M40">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="N40">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -8083,72 +8053,75 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="R40">
-        <v>43.815652</v>
+        <v>43.812376999999998</v>
       </c>
       <c r="S40">
-        <v>-111.792396</v>
+        <v>-111.789553</v>
       </c>
       <c r="T40">
-        <v>0.49709818900000002</v>
+        <v>0.124274547</v>
       </c>
       <c r="U40">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="B41">
-        <v>144</v>
+        <v>343</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="F41" t="s">
-        <v>22</v>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="J41" t="s">
-        <v>147</v>
-      </c>
-      <c r="K41" t="s">
-        <v>117</v>
-      </c>
-      <c r="L41" t="s">
-        <v>117</v>
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>980</v>
+      </c>
+      <c r="L41">
+        <v>980</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="R41">
-        <v>43.821872300000003</v>
+        <v>43.820971700000001</v>
       </c>
       <c r="S41">
-        <v>-111.7878656</v>
+        <v>-111.78671629999999</v>
       </c>
       <c r="T41">
         <v>6.2137273999999999E-2</v>
@@ -8157,154 +8130,160 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="D42" t="s">
-        <v>574</v>
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="L42">
-        <v>1200</v>
+        <v>1245</v>
       </c>
       <c r="M42">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="N42">
+        <v>85</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
         <v>75</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>20</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>138</v>
-      </c>
       <c r="R42">
-        <v>43.814636700000001</v>
+        <v>43.817690200000001</v>
       </c>
       <c r="S42">
-        <v>-111.7780764</v>
+        <v>-111.788803</v>
       </c>
       <c r="T42">
         <v>0.37282364200000001</v>
       </c>
       <c r="U42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
       </c>
       <c r="H43" t="s">
         <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>870</v>
+        <v>1279</v>
       </c>
       <c r="L43">
-        <v>895</v>
+        <v>1279</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="R43">
-        <v>43.818871799999997</v>
+        <v>43.815593100000001</v>
       </c>
       <c r="S43">
-        <v>-111.7895166</v>
+        <v>-111.7888627</v>
       </c>
       <c r="T43">
         <v>0.37282364200000001</v>
       </c>
       <c r="U43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="B44">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
         <v>22</v>
       </c>
       <c r="H44" t="s">
         <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="L44">
-        <v>1075</v>
+        <v>1425</v>
       </c>
       <c r="M44">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>100</v>
@@ -8316,116 +8295,116 @@
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="R44">
-        <v>43.821860000000001</v>
+        <v>43.813549999999999</v>
       </c>
       <c r="S44">
-        <v>-111.785197</v>
+        <v>-111.791355</v>
       </c>
       <c r="T44">
-        <v>6.2137273999999999E-2</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="B45">
-        <v>142</v>
+        <v>288</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
       </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
       <c r="H45" t="s">
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
-      </c>
-      <c r="K45" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" t="s">
-        <v>117</v>
+        <v>85</v>
+      </c>
+      <c r="K45">
+        <v>1279</v>
+      </c>
+      <c r="L45">
+        <v>1279</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N45">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="R45">
-        <v>43.817062399999998</v>
+        <v>43.815593100000001</v>
       </c>
       <c r="S45">
-        <v>-111.7895741</v>
+        <v>-111.7888627</v>
       </c>
       <c r="T45">
-        <v>0.49709818900000002</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U45">
         <v>9</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>584</v>
+        <v>105</v>
       </c>
       <c r="B46">
-        <v>142</v>
+        <v>288</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
       </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>1302.5</v>
+        <v>1375</v>
       </c>
       <c r="L46">
-        <v>1315</v>
+        <v>1425</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -8434,33 +8413,33 @@
         <v>3</v>
       </c>
       <c r="Q46" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="R46">
-        <v>43.817062399999998</v>
+        <v>43.811690900000002</v>
       </c>
       <c r="S46">
-        <v>-111.7895741</v>
+        <v>-111.794504</v>
       </c>
       <c r="T46">
-        <v>0.49709818900000002</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>586</v>
       </c>
       <c r="B47">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8469,243 +8448,240 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="K47">
-        <v>1046.25</v>
+        <v>1267.5</v>
       </c>
       <c r="L47">
-        <v>1135</v>
+        <v>1330</v>
       </c>
       <c r="M47">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="N47">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="R47">
-        <v>43.824505000000002</v>
+        <v>43.812376999999998</v>
       </c>
       <c r="S47">
-        <v>-111.780339</v>
+        <v>-111.789553</v>
       </c>
       <c r="T47">
-        <v>0.43496091599999998</v>
+        <v>0.124274547</v>
       </c>
       <c r="U47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="B48">
-        <v>140</v>
+        <v>252</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="K48">
-        <v>1125</v>
+        <v>999</v>
       </c>
       <c r="L48">
-        <v>1245</v>
+        <v>999</v>
       </c>
       <c r="M48">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="N48">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="R48">
-        <v>43.816321199999997</v>
+        <v>43.816576099999999</v>
       </c>
       <c r="S48">
-        <v>-111.7780659</v>
+        <v>-111.7895659</v>
       </c>
       <c r="T48">
-        <v>0.248549095</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="B49">
-        <v>138</v>
+        <v>238</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
       </c>
-      <c r="F49" t="s">
-        <v>35</v>
-      </c>
       <c r="H49" t="s">
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49">
-        <v>2084177223</v>
+        <v>120</v>
+      </c>
+      <c r="J49" t="s">
+        <v>121</v>
       </c>
       <c r="K49">
-        <v>1420</v>
+        <v>896.66666599999996</v>
       </c>
       <c r="L49">
-        <v>1445</v>
+        <v>960</v>
       </c>
       <c r="M49">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q49" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="R49">
-        <v>43.823934199999997</v>
+        <v>43.817697500000001</v>
       </c>
       <c r="S49">
-        <v>-111.7773062</v>
+        <v>-111.7906892</v>
       </c>
       <c r="T49">
-        <v>0.31068636799999999</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="B50">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="K50">
-        <v>1000</v>
+        <v>1129</v>
       </c>
       <c r="L50">
-        <v>1075</v>
+        <v>1129</v>
       </c>
       <c r="M50">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="N50">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="R50">
-        <v>43.821866</v>
+        <v>43.8246842</v>
       </c>
       <c r="S50">
-        <v>-111.7852097</v>
+        <v>-111.7866669</v>
       </c>
       <c r="T50">
-        <v>6.2137273999999999E-2</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="B51">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
         <v>141</v>
@@ -8714,13 +8690,13 @@
         <v>142</v>
       </c>
       <c r="K51">
-        <v>1560</v>
+        <v>1585</v>
       </c>
       <c r="L51">
         <v>1585</v>
       </c>
       <c r="M51">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N51">
         <v>75</v>
@@ -8729,22 +8705,22 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q51" t="s">
         <v>143</v>
       </c>
       <c r="R51">
-        <v>43.813510000000001</v>
+        <v>43.822091999999998</v>
       </c>
       <c r="S51">
-        <v>-111.78666800000001</v>
+        <v>-111.78069000000001</v>
       </c>
       <c r="T51">
-        <v>0.18641182100000001</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>144</v>
@@ -8752,93 +8728,96 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="B52">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="J52" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="K52">
-        <v>1175</v>
+        <v>975</v>
       </c>
       <c r="L52">
-        <v>1200</v>
+        <v>995</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N52">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="R52">
-        <v>43.815739000000001</v>
+        <v>43.821872300000003</v>
       </c>
       <c r="S52">
-        <v>-111.792608</v>
+        <v>-111.7878656</v>
       </c>
       <c r="T52">
-        <v>0.49709818900000002</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="B53">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="J53" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="K53">
-        <v>1095</v>
+        <v>1259</v>
       </c>
       <c r="L53">
-        <v>1095</v>
+        <v>1259</v>
       </c>
       <c r="M53">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="N53">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -8847,113 +8826,116 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="R53">
-        <v>43.8187924</v>
+        <v>43.817706399999999</v>
       </c>
       <c r="S53">
-        <v>-111.77805909999999</v>
+        <v>-111.78814130000001</v>
       </c>
       <c r="T53">
-        <v>6.2137273999999999E-2</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="B54">
-        <v>108</v>
+        <v>180</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="J54" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="K54">
-        <v>1224</v>
+        <v>1110</v>
       </c>
       <c r="L54">
-        <v>1249</v>
+        <v>1110</v>
       </c>
       <c r="M54">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="N54">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="R54">
-        <v>43.8187924</v>
+        <v>43.816342200000001</v>
       </c>
       <c r="S54">
-        <v>-111.77805909999999</v>
+        <v>-111.78690589999999</v>
       </c>
       <c r="T54">
-        <v>6.2137273999999999E-2</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="B55">
-        <v>108</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" t="s">
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J55" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K55">
-        <v>1110</v>
+        <v>1189</v>
       </c>
       <c r="L55">
-        <v>1110</v>
+        <v>1189</v>
       </c>
       <c r="M55">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -8962,51 +8944,54 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="R55">
-        <v>43.816342200000001</v>
+        <v>43.817231999999997</v>
       </c>
       <c r="S55">
-        <v>-111.78690589999999</v>
+        <v>-111.78743299999999</v>
       </c>
       <c r="T55">
-        <v>0.37282364200000001</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>577</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B56">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="J56" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="K56">
-        <v>1225</v>
+        <v>1445</v>
       </c>
       <c r="L56">
-        <v>1275</v>
+        <v>1495</v>
       </c>
       <c r="M56">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="N56">
         <v>150</v>
@@ -9015,45 +9000,48 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="R56">
-        <v>43.813392100000002</v>
+        <v>43.823934199999997</v>
       </c>
       <c r="S56">
-        <v>-111.7945301</v>
+        <v>-111.7773062</v>
       </c>
       <c r="T56">
-        <v>0.43496091599999998</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B57">
-        <v>100</v>
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>251</v>
-      </c>
-      <c r="J57">
-        <v>3604043</v>
+        <v>146</v>
+      </c>
+      <c r="J57" t="s">
+        <v>147</v>
       </c>
       <c r="K57" t="s">
         <v>117</v>
@@ -9071,107 +9059,116 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q57" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="R57">
-        <v>43.820096900000003</v>
+        <v>43.821872300000003</v>
       </c>
       <c r="S57">
-        <v>-111.7809297</v>
+        <v>-111.7878656</v>
       </c>
       <c r="T57">
-        <v>0.18641182100000001</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B58">
-        <v>97</v>
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
-      </c>
-      <c r="J58" t="s">
-        <v>256</v>
+        <v>186</v>
+      </c>
+      <c r="J58">
+        <v>2084177223</v>
       </c>
       <c r="K58">
-        <v>1018.333333</v>
+        <v>1420</v>
       </c>
       <c r="L58">
-        <v>1045</v>
+        <v>1445</v>
       </c>
       <c r="M58">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N58">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>188</v>
       </c>
       <c r="R58">
-        <v>43.821409299999999</v>
+        <v>43.823934199999997</v>
       </c>
       <c r="S58">
-        <v>-111.7895566</v>
+        <v>-111.7773062</v>
       </c>
       <c r="T58">
-        <v>0.18641182100000001</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B59">
-        <v>96</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
       </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="J59" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="K59">
-        <v>1345</v>
+        <v>1560</v>
       </c>
       <c r="L59">
-        <v>1345</v>
+        <v>1585</v>
       </c>
       <c r="M59">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="N59">
         <v>75</v>
@@ -9180,57 +9177,60 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="R59">
-        <v>43.815617099999997</v>
+        <v>43.813510000000001</v>
       </c>
       <c r="S59">
-        <v>-111.7884885</v>
+        <v>-111.78666800000001</v>
       </c>
       <c r="T59">
-        <v>0.43496091599999998</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U59">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>578</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B60">
-        <v>92</v>
+        <v>108</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="J60" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="K60">
-        <v>981</v>
+        <v>1110</v>
       </c>
       <c r="L60">
-        <v>981</v>
+        <v>1110</v>
       </c>
       <c r="M60">
         <v>70</v>
       </c>
       <c r="N60">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -9239,30 +9239,30 @@
         <v>1</v>
       </c>
       <c r="Q60" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="R60">
-        <v>43.823056000000001</v>
+        <v>43.816342200000001</v>
       </c>
       <c r="S60">
-        <v>-111.779371</v>
+        <v>-111.78690589999999</v>
       </c>
       <c r="T60">
-        <v>0.43496091599999998</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>265</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B61">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -9274,16 +9274,16 @@
         <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J61" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K61">
-        <v>1310</v>
+        <v>1345</v>
       </c>
       <c r="L61">
-        <v>1310</v>
+        <v>1345</v>
       </c>
       <c r="M61">
         <v>96</v>
@@ -9295,54 +9295,57 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="s">
         <v>70</v>
       </c>
       <c r="R61">
-        <v>43.816135299999999</v>
+        <v>43.815617099999997</v>
       </c>
       <c r="S61">
-        <v>-111.7924099</v>
+        <v>-111.7884885</v>
       </c>
       <c r="T61">
-        <v>0.55923546300000004</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>269</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B62">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J62" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K62">
-        <v>950</v>
+        <v>1310</v>
       </c>
       <c r="L62">
-        <v>950</v>
+        <v>1310</v>
       </c>
       <c r="M62">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N62">
         <v>75</v>
@@ -9351,25 +9354,25 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="s">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="R62">
-        <v>43.825077800000003</v>
+        <v>43.816135299999999</v>
       </c>
       <c r="S62">
-        <v>-111.7867042</v>
+        <v>-111.7924099</v>
       </c>
       <c r="T62">
-        <v>0.248549095</v>
+        <v>0.55923546300000004</v>
       </c>
       <c r="U62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -9492,137 +9495,149 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="B65">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="K65">
-        <v>895</v>
+        <v>1310</v>
       </c>
       <c r="L65">
-        <v>895</v>
+        <v>1310</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="R65">
-        <v>43.819764999999997</v>
+        <v>43.816135299999999</v>
       </c>
       <c r="S65">
-        <v>-111.78797729999999</v>
+        <v>-111.7924099</v>
       </c>
       <c r="T65">
-        <v>0.18641182100000001</v>
+        <v>0.55923546300000004</v>
       </c>
       <c r="U65">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="B66">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>349</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="J66" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="K66">
-        <v>1150</v>
+        <v>1035</v>
       </c>
       <c r="L66">
-        <v>1225</v>
+        <v>1060</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N66">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="R66">
-        <v>43.820138</v>
+        <v>43.816941800000002</v>
       </c>
       <c r="S66">
-        <v>-111.788876</v>
+        <v>-111.7952062</v>
       </c>
       <c r="T66">
-        <v>0.248549095</v>
+        <v>0.74564728400000002</v>
       </c>
       <c r="U66">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>349</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>290</v>
+        <v>501</v>
       </c>
       <c r="J67" t="s">
-        <v>69</v>
+        <v>502</v>
       </c>
       <c r="K67">
-        <v>1019</v>
+        <v>980</v>
       </c>
       <c r="L67">
-        <v>1019</v>
+        <v>980</v>
       </c>
       <c r="M67">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -9631,331 +9646,310 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>70</v>
+        <v>503</v>
       </c>
       <c r="R67">
-        <v>43.820971700000001</v>
+        <v>43.821815299999997</v>
       </c>
       <c r="S67">
-        <v>-111.78671629999999</v>
+        <v>-111.77714949999999</v>
       </c>
       <c r="T67">
-        <v>6.2137273999999999E-2</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>291</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>582</v>
       </c>
       <c r="B68">
-        <v>64</v>
+        <v>590</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="K68">
-        <v>850</v>
+        <v>1388</v>
       </c>
       <c r="L68">
-        <v>850</v>
+        <v>1557</v>
       </c>
       <c r="M68">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>100</v>
       </c>
       <c r="O68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q68" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="R68">
-        <v>43.817675199999996</v>
+        <v>43.814999999999998</v>
       </c>
       <c r="S68">
-        <v>-111.7764603</v>
+        <v>-111.791299</v>
       </c>
       <c r="T68">
-        <v>0.248549095</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U68">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="B69">
-        <v>64</v>
-      </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>298</v>
-      </c>
-      <c r="J69" t="s">
-        <v>299</v>
-      </c>
-      <c r="K69">
-        <v>1125</v>
-      </c>
-      <c r="L69">
-        <v>1200</v>
-      </c>
-      <c r="M69">
-        <v>35</v>
-      </c>
-      <c r="N69">
-        <v>100</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>300</v>
+        <v>584</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
       </c>
       <c r="R69">
-        <v>43.821956999999998</v>
+        <v>43.8211893</v>
       </c>
       <c r="S69">
-        <v>-111.784145</v>
-      </c>
-      <c r="T69">
-        <v>0.124274547</v>
-      </c>
-      <c r="U69">
-        <v>2</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>301</v>
+        <v>-111.7915203</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>585</v>
       </c>
       <c r="B70">
-        <v>60</v>
-      </c>
-      <c r="C70">
+        <v>474</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70">
         <v>1</v>
       </c>
-      <c r="D70" t="s">
-        <v>21</v>
+      <c r="F70" t="s">
+        <v>22</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="J70" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="K70">
-        <v>1310</v>
+        <v>1323</v>
       </c>
       <c r="L70">
-        <v>1310</v>
+        <v>1356</v>
       </c>
       <c r="M70">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q70" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="R70">
-        <v>43.816135299999999</v>
+        <v>43.814999999999998</v>
       </c>
       <c r="S70">
-        <v>-111.7924099</v>
+        <v>-111.791299</v>
       </c>
       <c r="T70">
-        <v>0.55923546300000004</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="B71">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>157</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="J71" t="s">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="K71">
-        <v>955</v>
+        <v>1325</v>
       </c>
       <c r="L71">
-        <v>960</v>
+        <v>1325</v>
       </c>
       <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>100</v>
       </c>
-      <c r="N71">
-        <v>75</v>
-      </c>
       <c r="O71">
         <v>0</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="R71">
-        <v>43.825077800000003</v>
+        <v>43.817458000000002</v>
       </c>
       <c r="S71">
-        <v>-111.7867042</v>
+        <v>-111.792466</v>
       </c>
       <c r="T71">
-        <v>0.248549095</v>
+        <v>0.62137273699999995</v>
       </c>
       <c r="U71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="B72">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="J72" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="K72">
-        <v>995</v>
+        <v>1095</v>
       </c>
       <c r="L72">
-        <v>1045</v>
+        <v>1095</v>
       </c>
       <c r="M72">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="N72">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="R72">
-        <v>43.8177035</v>
+        <v>43.8187924</v>
       </c>
       <c r="S72">
-        <v>-111.7886615</v>
+        <v>-111.77805909999999</v>
       </c>
       <c r="T72">
-        <v>0.37282364200000001</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U72">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="B73">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J73" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K73">
-        <v>1300</v>
+        <v>1224</v>
       </c>
       <c r="L73">
-        <v>1325</v>
+        <v>1249</v>
       </c>
       <c r="M73">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="N73">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -9964,51 +9958,57 @@
         <v>3</v>
       </c>
       <c r="Q73" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="R73">
-        <v>43.813392100000002</v>
+        <v>43.8187924</v>
       </c>
       <c r="S73">
-        <v>-111.7945301</v>
+        <v>-111.77805909999999</v>
       </c>
       <c r="T73">
-        <v>0.43496091599999998</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="B74">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>57</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="K74">
-        <v>1222</v>
+        <v>1374</v>
       </c>
       <c r="L74">
-        <v>1369</v>
+        <v>1399</v>
       </c>
       <c r="M74">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="N74">
         <v>150</v>
@@ -10020,110 +10020,116 @@
         <v>3</v>
       </c>
       <c r="Q74" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="R74">
-        <v>43.819758399999998</v>
+        <v>43.812030900000003</v>
       </c>
       <c r="S74">
-        <v>-111.78882900000001</v>
+        <v>-111.77585190000001</v>
       </c>
       <c r="T74">
-        <v>0.248549095</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c r="B75">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="J75" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="K75">
-        <v>1175</v>
+        <v>1374</v>
       </c>
       <c r="L75">
-        <v>1200</v>
+        <v>1399</v>
       </c>
       <c r="M75">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="N75">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="R75">
-        <v>43.815739000000001</v>
+        <v>43.812168</v>
       </c>
       <c r="S75">
-        <v>-111.792608</v>
+        <v>-111.778051</v>
       </c>
       <c r="T75">
-        <v>0.49709818900000002</v>
+        <v>0.248549095</v>
       </c>
       <c r="U75">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>318</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="B76">
-        <v>59</v>
-      </c>
-      <c r="D76" t="s">
-        <v>180</v>
+        <v>548</v>
+      </c>
+      <c r="E76">
+        <v>0.5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>181</v>
-      </c>
-      <c r="J76">
-        <v>2083565097</v>
+        <v>36</v>
+      </c>
+      <c r="J76" t="s">
+        <v>37</v>
       </c>
       <c r="K76">
-        <v>1202.5</v>
+        <v>1537.333333</v>
       </c>
       <c r="L76">
-        <v>1380</v>
+        <v>1669</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="N76">
         <v>100</v>
@@ -10132,54 +10138,60 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Q76" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="R76">
-        <v>43.822203000000002</v>
+        <v>43.822758</v>
       </c>
       <c r="S76">
-        <v>-111.780098</v>
+        <v>-111.78617</v>
       </c>
       <c r="T76">
-        <v>0.248549095</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>320</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="B77">
-        <v>53</v>
-      </c>
-      <c r="D77" t="s">
-        <v>130</v>
+        <v>476</v>
+      </c>
+      <c r="E77">
+        <v>0.5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="J77" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="K77">
-        <v>972.5</v>
+        <v>1537.333333</v>
       </c>
       <c r="L77">
-        <v>995</v>
+        <v>1669</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>508</v>
       </c>
       <c r="N77">
         <v>100</v>
@@ -10188,160 +10200,169 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q77" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="R77">
-        <v>43.828525900000002</v>
+        <v>43.822758</v>
       </c>
       <c r="S77">
-        <v>-111.779619</v>
+        <v>-111.78617</v>
       </c>
       <c r="T77">
-        <v>0.68351001</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U77">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="B78">
-        <v>53</v>
+        <v>444</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
       </c>
       <c r="H78" t="s">
         <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="J78" t="s">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>1216.6666660000001</v>
+        <v>1495</v>
       </c>
       <c r="L78">
-        <v>1250</v>
+        <v>1495</v>
       </c>
       <c r="M78">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="N78">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="R78">
-        <v>43.815602400000003</v>
+        <v>43.821158599999997</v>
       </c>
       <c r="S78">
-        <v>-111.7917058</v>
+        <v>-111.78671319999999</v>
       </c>
       <c r="T78">
-        <v>0.49709818900000002</v>
+        <v>0.55302173600000004</v>
       </c>
       <c r="U78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="B79">
-        <v>50</v>
+        <v>360</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
       </c>
       <c r="H79" t="s">
         <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>332</v>
+        <v>63</v>
       </c>
       <c r="J79" t="s">
-        <v>333</v>
+        <v>64</v>
       </c>
       <c r="K79">
-        <v>940</v>
+        <v>1345</v>
       </c>
       <c r="L79">
-        <v>940</v>
+        <v>1345</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="N79">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="R79">
-        <v>43.820940499999999</v>
+        <v>43.8218672</v>
       </c>
       <c r="S79">
-        <v>-111.7809226</v>
+        <v>-111.78724579999999</v>
       </c>
       <c r="T79">
-        <v>0.248549095</v>
+        <v>0.35418245999999998</v>
       </c>
       <c r="U79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>335</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="B80">
-        <v>48</v>
-      </c>
-      <c r="D80" t="s">
-        <v>130</v>
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>337</v>
+        <v>175</v>
       </c>
       <c r="J80" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="K80">
-        <v>925</v>
+        <v>1155</v>
       </c>
       <c r="L80">
-        <v>925</v>
+        <v>1240</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="N80">
         <v>100</v>
@@ -10350,54 +10371,57 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q80" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="R80">
-        <v>43.823664000000001</v>
+        <v>43.814118999999998</v>
       </c>
       <c r="S80">
-        <v>-111.779473</v>
+        <v>-111.789569</v>
       </c>
       <c r="T80">
-        <v>0.37282364200000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>340</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>341</v>
+        <v>583</v>
       </c>
       <c r="B81">
-        <v>48</v>
-      </c>
-      <c r="D81" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="J81" t="s">
-        <v>263</v>
-      </c>
-      <c r="K81">
-        <v>981</v>
-      </c>
-      <c r="L81">
-        <v>981</v>
+        <v>212</v>
+      </c>
+      <c r="K81" t="s">
+        <v>117</v>
+      </c>
+      <c r="L81" t="s">
+        <v>117</v>
       </c>
       <c r="M81">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>125</v>
@@ -10406,54 +10430,60 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="R81">
-        <v>43.823056000000001</v>
+        <v>43.817062399999998</v>
       </c>
       <c r="S81">
-        <v>-111.779371</v>
+        <v>-111.7895741</v>
       </c>
       <c r="T81">
-        <v>0.43496091599999998</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U81">
         <v>9</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>343</v>
+        <v>584</v>
       </c>
       <c r="B82">
-        <v>44</v>
+        <v>142</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="J82" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="K82">
-        <v>1020</v>
+        <v>1302.5</v>
       </c>
       <c r="L82">
-        <v>1045</v>
+        <v>1315</v>
       </c>
       <c r="M82">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -10462,54 +10492,54 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="R82">
-        <v>43.818505799999997</v>
+        <v>43.817062399999998</v>
       </c>
       <c r="S82">
-        <v>-111.7867268</v>
+        <v>-111.7895741</v>
       </c>
       <c r="T82">
-        <v>0.248549095</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U82">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="B83">
-        <v>42</v>
-      </c>
-      <c r="D83" t="s">
-        <v>349</v>
+        <v>100</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
       </c>
       <c r="H83" t="s">
         <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>350</v>
-      </c>
-      <c r="J83" t="s">
-        <v>351</v>
-      </c>
-      <c r="K83">
-        <v>1035</v>
-      </c>
-      <c r="L83">
-        <v>1060</v>
+        <v>251</v>
+      </c>
+      <c r="J83">
+        <v>3604043</v>
+      </c>
+      <c r="K83" t="s">
+        <v>117</v>
+      </c>
+      <c r="L83" t="s">
+        <v>117</v>
       </c>
       <c r="M83">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -10518,54 +10548,51 @@
         <v>3</v>
       </c>
       <c r="Q83" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="R83">
-        <v>43.816941800000002</v>
+        <v>43.820096900000003</v>
       </c>
       <c r="S83">
-        <v>-111.7952062</v>
+        <v>-111.7809297</v>
       </c>
       <c r="T83">
-        <v>0.74564728400000002</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U83">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="B84">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="J84" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="K84">
-        <v>995</v>
+        <v>1018.333333</v>
       </c>
       <c r="L84">
-        <v>995</v>
+        <v>1045</v>
       </c>
       <c r="M84">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N84">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -10573,14 +10600,11 @@
       <c r="P84">
         <v>6</v>
       </c>
-      <c r="Q84" t="s">
-        <v>357</v>
-      </c>
       <c r="R84">
-        <v>43.822581300000003</v>
+        <v>43.821409299999999</v>
       </c>
       <c r="S84">
-        <v>-111.7838412</v>
+        <v>-111.7895566</v>
       </c>
       <c r="T84">
         <v>0.18641182100000001</v>
@@ -10589,92 +10613,89 @@
         <v>4</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>358</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="J85" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="K85">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="L85">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="M85">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N85">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q85" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="R85">
-        <v>43.823078600000002</v>
+        <v>43.819764999999997</v>
       </c>
       <c r="S85">
-        <v>-111.7924581</v>
+        <v>-111.78797729999999</v>
       </c>
       <c r="T85">
-        <v>0.37282364200000001</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>363</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="B86">
-        <v>41</v>
-      </c>
-      <c r="D86" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="J86" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="K86">
-        <v>995</v>
+        <v>1150</v>
       </c>
       <c r="L86">
-        <v>995</v>
+        <v>1225</v>
       </c>
       <c r="M86">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N86">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -10683,48 +10704,48 @@
         <v>6</v>
       </c>
       <c r="Q86" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="R86">
-        <v>43.8177393</v>
+        <v>43.820138</v>
       </c>
       <c r="S86">
-        <v>-111.7886609</v>
+        <v>-111.788876</v>
       </c>
       <c r="T86">
-        <v>0.37282364200000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="B87">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H87" t="s">
         <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="J87" t="s">
-        <v>371</v>
+        <v>69</v>
       </c>
       <c r="K87">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="L87">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N87">
         <v>75</v>
@@ -10733,228 +10754,228 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>372</v>
+        <v>70</v>
       </c>
       <c r="R87">
-        <v>43.819799600000003</v>
+        <v>43.820971700000001</v>
       </c>
       <c r="S87">
-        <v>-111.7871315</v>
+        <v>-111.78671629999999</v>
       </c>
       <c r="T87">
-        <v>0.18641182100000001</v>
+        <v>6.2137273999999999E-2</v>
       </c>
       <c r="U87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="B88">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
       <c r="J88" t="s">
-        <v>376</v>
+        <v>294</v>
       </c>
       <c r="K88">
-        <v>988</v>
+        <v>850</v>
       </c>
       <c r="L88">
-        <v>988</v>
+        <v>850</v>
       </c>
       <c r="M88">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N88">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P88">
         <v>1</v>
       </c>
-      <c r="Q88" s="4" t="s">
-        <v>377</v>
+      <c r="Q88" t="s">
+        <v>295</v>
       </c>
       <c r="R88">
-        <v>43.820143000000002</v>
+        <v>43.817675199999996</v>
       </c>
       <c r="S88">
-        <v>-111.78776999999999</v>
+        <v>-111.7764603</v>
       </c>
       <c r="T88">
-        <v>0.18641182100000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U88">
         <v>4</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>379</v>
+        <v>297</v>
       </c>
       <c r="B89">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="J89" t="s">
-        <v>381</v>
+        <v>299</v>
       </c>
       <c r="K89">
-        <v>1050</v>
+        <v>1125</v>
       </c>
       <c r="L89">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="R89">
-        <v>43.822282600000001</v>
+        <v>43.821956999999998</v>
       </c>
       <c r="S89">
-        <v>-111.7924522</v>
+        <v>-111.784145</v>
       </c>
       <c r="T89">
-        <v>0.31068636799999999</v>
+        <v>0.124274547</v>
       </c>
       <c r="U89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="J90" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="K90">
-        <v>1133.333333</v>
+        <v>1216.6666660000001</v>
       </c>
       <c r="L90">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N90">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q90" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="R90">
-        <v>43.822282600000001</v>
+        <v>43.815602400000003</v>
       </c>
       <c r="S90">
-        <v>-111.7924522</v>
+        <v>-111.7917058</v>
       </c>
       <c r="T90">
-        <v>0.31068636799999999</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U90">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="B91">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="J91" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="K91">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="L91">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="M91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N91">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q91" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="R91">
-        <v>43.820494699999998</v>
+        <v>43.820940499999999</v>
       </c>
       <c r="S91">
-        <v>-111.7895635</v>
+        <v>-111.7809226</v>
       </c>
       <c r="T91">
         <v>0.248549095</v>
@@ -10963,92 +10984,89 @@
         <v>5</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="B92">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="J92" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="K92">
-        <v>895</v>
+        <v>1020</v>
       </c>
       <c r="L92">
-        <v>895</v>
+        <v>1045</v>
       </c>
       <c r="M92">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N92">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
       <c r="P92">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="R92">
-        <v>43.8218751</v>
+        <v>43.818505799999997</v>
       </c>
       <c r="S92">
-        <v>-111.7938578</v>
+        <v>-111.7867268</v>
       </c>
       <c r="T92">
-        <v>0.37282364200000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="B93">
-        <v>24</v>
-      </c>
-      <c r="D93" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="J93" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="K93">
-        <v>998</v>
+        <v>950</v>
       </c>
       <c r="L93">
-        <v>998</v>
+        <v>950</v>
       </c>
       <c r="M93">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N93">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -11057,48 +11075,48 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="R93">
-        <v>43.821860000000001</v>
+        <v>43.823078600000002</v>
       </c>
       <c r="S93">
-        <v>-111.77909699999999</v>
+        <v>-111.7924581</v>
       </c>
       <c r="T93">
-        <v>0.18641182100000001</v>
+        <v>0.37282364200000001</v>
       </c>
       <c r="U93">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="B94">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s">
         <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="J94" t="s">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="K94">
-        <v>1275</v>
+        <v>995</v>
       </c>
       <c r="L94">
-        <v>1390</v>
+        <v>995</v>
       </c>
       <c r="M94">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N94">
         <v>75</v>
@@ -11110,210 +11128,210 @@
         <v>3</v>
       </c>
       <c r="Q94" t="s">
-        <v>70</v>
+        <v>372</v>
       </c>
       <c r="R94">
-        <v>43.820672999999999</v>
+        <v>43.819799600000003</v>
       </c>
       <c r="S94">
-        <v>-111.7895151</v>
+        <v>-111.7871315</v>
       </c>
       <c r="T94">
-        <v>0.248549095</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="B95">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="J95" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="K95">
-        <v>1250</v>
+        <v>988</v>
       </c>
       <c r="L95">
-        <v>1250</v>
+        <v>988</v>
       </c>
       <c r="M95">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N95">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95">
-        <v>2</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>329</v>
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="R95">
-        <v>43.815602400000003</v>
+        <v>43.820143000000002</v>
       </c>
       <c r="S95">
-        <v>-111.7917058</v>
+        <v>-111.78776999999999</v>
       </c>
       <c r="T95">
-        <v>0.49709818900000002</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U95">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B96">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
         <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="J96" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="K96">
-        <v>1261.6666660000001</v>
+        <v>1050</v>
       </c>
       <c r="L96">
-        <v>1395</v>
+        <v>1100</v>
       </c>
       <c r="M96">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q96" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="R96">
-        <v>43.819785099999997</v>
+        <v>43.822282600000001</v>
       </c>
       <c r="S96">
-        <v>-111.7943981</v>
+        <v>-111.7924522</v>
       </c>
       <c r="T96">
-        <v>0.55923546300000004</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U96">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B97">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="J97" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="K97">
-        <v>1410</v>
+        <v>1133.333333</v>
       </c>
       <c r="L97">
-        <v>1410</v>
+        <v>1200</v>
       </c>
       <c r="M97">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q97" t="s">
-        <v>70</v>
+        <v>382</v>
       </c>
       <c r="R97">
-        <v>43.815617099999997</v>
+        <v>43.822282600000001</v>
       </c>
       <c r="S97">
-        <v>-111.7884885</v>
+        <v>-111.7924522</v>
       </c>
       <c r="T97">
-        <v>0.43496091599999998</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U97">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B98">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="J98" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="K98">
-        <v>972.5</v>
+        <v>900</v>
       </c>
       <c r="L98">
-        <v>1115</v>
+        <v>900</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N98">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -11322,269 +11340,263 @@
         <v>10</v>
       </c>
       <c r="Q98" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="R98">
-        <v>43.8197811</v>
+        <v>43.820494699999998</v>
       </c>
       <c r="S98">
-        <v>-111.7918951</v>
+        <v>-111.7895635</v>
       </c>
       <c r="T98">
-        <v>0.43496091599999998</v>
+        <v>0.248549095</v>
       </c>
       <c r="U98">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B99">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="J99" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="K99">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="L99">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="M99">
+        <v>30</v>
+      </c>
+      <c r="N99">
+        <v>80</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>19</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>395</v>
+      </c>
+      <c r="R99">
+        <v>43.8218751</v>
+      </c>
+      <c r="S99">
+        <v>-111.7938578</v>
+      </c>
+      <c r="T99">
+        <v>0.37282364200000001</v>
+      </c>
+      <c r="U99">
         <v>7</v>
       </c>
-      <c r="N99">
-        <v>75</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>6</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>418</v>
-      </c>
-      <c r="R99">
-        <v>43.817507499999998</v>
-      </c>
-      <c r="S99">
-        <v>-111.7752093</v>
-      </c>
-      <c r="T99">
-        <v>0.31068636799999999</v>
-      </c>
-      <c r="U99">
-        <v>6</v>
-      </c>
       <c r="V99" s="1" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B100">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>421</v>
+        <v>290</v>
       </c>
       <c r="J100" t="s">
-        <v>422</v>
-      </c>
-      <c r="K100" t="s">
-        <v>117</v>
-      </c>
-      <c r="L100" t="s">
-        <v>117</v>
+        <v>69</v>
+      </c>
+      <c r="K100">
+        <v>1275</v>
+      </c>
+      <c r="L100">
+        <v>1390</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q100" t="s">
-        <v>423</v>
+        <v>70</v>
       </c>
       <c r="R100">
-        <v>43.821819099999999</v>
+        <v>43.820672999999999</v>
       </c>
       <c r="S100">
-        <v>-111.77917119999999</v>
+        <v>-111.7895151</v>
       </c>
       <c r="T100">
-        <v>0.18641182100000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U100">
         <v>5</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B101">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="J101" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="K101">
-        <v>890</v>
+        <v>1250</v>
       </c>
       <c r="L101">
-        <v>890</v>
+        <v>1250</v>
       </c>
       <c r="M101">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="N101">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q101" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="R101">
-        <v>43.824663000000001</v>
+        <v>43.815602400000003</v>
       </c>
       <c r="S101">
-        <v>-111.7835934</v>
+        <v>-111.7917058</v>
       </c>
       <c r="T101">
-        <v>0.31068636799999999</v>
+        <v>0.49709818900000002</v>
       </c>
       <c r="U101">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B102">
-        <v>14</v>
-      </c>
-      <c r="D102" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
         <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="J102" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="K102">
-        <v>967</v>
+        <v>1261.6666660000001</v>
       </c>
       <c r="L102">
-        <v>967</v>
+        <v>1395</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N102">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q102" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="R102">
-        <v>43.820059000000001</v>
+        <v>43.819785099999997</v>
       </c>
       <c r="S102">
-        <v>-111.788248</v>
+        <v>-111.7943981</v>
       </c>
       <c r="T102">
-        <v>0.248549095</v>
+        <v>0.55923546300000004</v>
       </c>
       <c r="U102">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="B103">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="J103" t="s">
-        <v>437</v>
+        <v>260</v>
       </c>
       <c r="K103">
-        <v>1120</v>
+        <v>1410</v>
       </c>
       <c r="L103">
-        <v>1120</v>
+        <v>1410</v>
       </c>
       <c r="M103">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="N103">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -11593,48 +11605,48 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="R103">
-        <v>43.822228000000003</v>
+        <v>43.815617099999997</v>
       </c>
       <c r="S103">
-        <v>-111.77922100000001</v>
+        <v>-111.7884885</v>
       </c>
       <c r="T103">
-        <v>0.18641182100000001</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U103">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>438</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="J104" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="K104">
-        <v>1245</v>
+        <v>972.5</v>
       </c>
       <c r="L104">
-        <v>1295</v>
+        <v>1115</v>
       </c>
       <c r="M104">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N104">
         <v>100</v>
@@ -11643,42 +11655,42 @@
         <v>0</v>
       </c>
       <c r="P104">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q104" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="R104">
-        <v>43.819785099999997</v>
+        <v>43.8197811</v>
       </c>
       <c r="S104">
-        <v>-111.7943981</v>
+        <v>-111.7918951</v>
       </c>
       <c r="T104">
-        <v>0.55923546300000004</v>
+        <v>0.43496091599999998</v>
       </c>
       <c r="U104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="J105" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="K105">
         <v>925</v>
@@ -11687,7 +11699,7 @@
         <v>925</v>
       </c>
       <c r="M105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N105">
         <v>75</v>
@@ -11696,219 +11708,228 @@
         <v>0</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q105" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="R105">
-        <v>43.820940499999999</v>
+        <v>43.817507499999998</v>
       </c>
       <c r="S105">
-        <v>-111.7809226</v>
+        <v>-111.7752093</v>
       </c>
       <c r="T105">
-        <v>0.248549095</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="J106" t="s">
-        <v>449</v>
-      </c>
-      <c r="K106">
-        <v>880</v>
-      </c>
-      <c r="L106">
-        <v>880</v>
+        <v>422</v>
+      </c>
+      <c r="K106" t="s">
+        <v>117</v>
+      </c>
+      <c r="L106" t="s">
+        <v>117</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>423</v>
       </c>
       <c r="R106">
-        <v>43.822994000000001</v>
+        <v>43.821819099999999</v>
       </c>
       <c r="S106">
-        <v>-111.782747</v>
+        <v>-111.77917119999999</v>
       </c>
       <c r="T106">
-        <v>0.31068636799999999</v>
+        <v>0.18641182100000001</v>
       </c>
       <c r="U106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="J107" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="K107">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="L107">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="M107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="R107">
-        <v>43.821311600000001</v>
+        <v>43.824663000000001</v>
       </c>
       <c r="S107">
-        <v>-111.78092719999999</v>
+        <v>-111.7835934</v>
       </c>
       <c r="T107">
-        <v>0.248549095</v>
+        <v>0.31068636799999999</v>
       </c>
       <c r="U107">
         <v>6</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="J108" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="K108">
-        <v>895</v>
+        <v>1245</v>
       </c>
       <c r="L108">
-        <v>895</v>
+        <v>1295</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>442</v>
       </c>
       <c r="R108">
-        <v>43.822268999999999</v>
+        <v>43.819785099999997</v>
       </c>
       <c r="S108">
-        <v>-111.782776</v>
+        <v>-111.7943981</v>
       </c>
       <c r="T108">
-        <v>0.248549095</v>
+        <v>0.55923546300000004</v>
       </c>
       <c r="U108">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="J109" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="K109">
-        <v>995</v>
+        <v>925</v>
       </c>
       <c r="L109">
-        <v>995</v>
+        <v>925</v>
       </c>
       <c r="M109">
         <v>10</v>
       </c>
       <c r="N109">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>334</v>
       </c>
       <c r="R109">
-        <v>43.822675400000001</v>
+        <v>43.820940499999999</v>
       </c>
       <c r="S109">
-        <v>-111.7824172</v>
+        <v>-111.7809226</v>
       </c>
       <c r="T109">
         <v>0.248549095</v>
@@ -11917,139 +11938,136 @@
         <v>5</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
         <v>23</v>
       </c>
       <c r="I110" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="J110" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="K110">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="L110">
-        <v>1150</v>
+        <v>880</v>
       </c>
       <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>70</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>43.822994000000001</v>
+      </c>
+      <c r="S110">
+        <v>-111.782747</v>
+      </c>
+      <c r="T110">
+        <v>0.31068636799999999</v>
+      </c>
+      <c r="U110">
         <v>6</v>
       </c>
-      <c r="N110">
-        <v>100</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>3</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>465</v>
-      </c>
-      <c r="R110">
-        <v>43.823582999999999</v>
-      </c>
-      <c r="S110">
-        <v>-111.787926</v>
-      </c>
-      <c r="T110">
-        <v>0.18641182100000001</v>
-      </c>
-      <c r="U110">
-        <v>4</v>
-      </c>
       <c r="V110" s="1" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H111" t="s">
         <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="J111" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="K111">
-        <v>1125</v>
+        <v>940</v>
       </c>
       <c r="L111">
-        <v>1215</v>
+        <v>940</v>
       </c>
       <c r="M111">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N111">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O111">
         <v>0</v>
       </c>
       <c r="P111">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>334</v>
+      </c>
+      <c r="R111">
+        <v>43.821311600000001</v>
+      </c>
+      <c r="S111">
+        <v>-111.78092719999999</v>
+      </c>
+      <c r="T111">
+        <v>0.248549095</v>
+      </c>
+      <c r="U111">
         <v>6</v>
       </c>
-      <c r="Q111" t="s">
-        <v>469</v>
-      </c>
-      <c r="R111">
-        <v>43.820267999999999</v>
-      </c>
-      <c r="S111">
-        <v>-111.78687739999999</v>
-      </c>
-      <c r="T111">
-        <v>0.124274547</v>
-      </c>
-      <c r="U111">
-        <v>2</v>
-      </c>
       <c r="V111" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="J112" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="K112">
-        <v>1045</v>
+        <v>895</v>
       </c>
       <c r="L112">
-        <v>1095</v>
+        <v>895</v>
       </c>
       <c r="M112">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>150</v>
@@ -12058,51 +12076,51 @@
         <v>0</v>
       </c>
       <c r="P112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>43.820729999999998</v>
+        <v>43.822268999999999</v>
       </c>
       <c r="S112">
-        <v>-111.780478</v>
+        <v>-111.782776</v>
       </c>
       <c r="T112">
-        <v>0.18641182100000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U112">
         <v>5</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H113" t="s">
         <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>476</v>
-      </c>
-      <c r="J113">
-        <v>7202574493</v>
+        <v>459</v>
+      </c>
+      <c r="J113" t="s">
+        <v>460</v>
       </c>
       <c r="K113">
-        <v>960</v>
+        <v>995</v>
       </c>
       <c r="L113">
-        <v>960</v>
+        <v>995</v>
       </c>
       <c r="M113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N113">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -12110,49 +12128,46 @@
       <c r="P113">
         <v>1</v>
       </c>
-      <c r="Q113" t="s">
-        <v>477</v>
-      </c>
       <c r="R113">
-        <v>43.820385100000003</v>
+        <v>43.822675400000001</v>
       </c>
       <c r="S113">
-        <v>-111.7795297</v>
+        <v>-111.7824172</v>
       </c>
       <c r="T113">
-        <v>0.124274547</v>
+        <v>0.248549095</v>
       </c>
       <c r="U113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="J114" t="s">
         <v>464</v>
       </c>
       <c r="K114">
-        <v>1010</v>
+        <v>1120</v>
       </c>
       <c r="L114">
-        <v>1010</v>
+        <v>1150</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N114">
         <v>100</v>
@@ -12161,107 +12176,107 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q114" t="s">
         <v>465</v>
       </c>
       <c r="R114">
-        <v>43.823926299999997</v>
+        <v>43.823582999999999</v>
       </c>
       <c r="S114">
-        <v>-111.78717519999999</v>
+        <v>-111.787926</v>
       </c>
       <c r="T114">
         <v>0.18641182100000001</v>
       </c>
       <c r="U114">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="J115" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="K115">
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="L115">
-        <v>1150</v>
+        <v>1215</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N115">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="O115">
         <v>0</v>
       </c>
       <c r="P115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q115" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="R115">
-        <v>43.8218453</v>
+        <v>43.820267999999999</v>
       </c>
       <c r="S115">
-        <v>-111.7917922</v>
+        <v>-111.78687739999999</v>
       </c>
       <c r="T115">
-        <v>0.248549095</v>
+        <v>0.124274547</v>
       </c>
       <c r="U115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B116">
-        <v>7</v>
-      </c>
-      <c r="D116" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>487</v>
-      </c>
-      <c r="J116">
-        <v>3563001</v>
+        <v>472</v>
+      </c>
+      <c r="J116" t="s">
+        <v>473</v>
       </c>
       <c r="K116">
-        <v>1198</v>
+        <v>1045</v>
       </c>
       <c r="L116">
-        <v>1276</v>
+        <v>1095</v>
       </c>
       <c r="M116">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N116">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -12269,55 +12284,49 @@
       <c r="P116">
         <v>3</v>
       </c>
-      <c r="Q116" t="s">
-        <v>488</v>
-      </c>
       <c r="R116">
-        <v>43.822054000000001</v>
+        <v>43.820729999999998</v>
       </c>
       <c r="S116">
-        <v>-111.77830400000001</v>
+        <v>-111.780478</v>
       </c>
       <c r="T116">
         <v>0.18641182100000001</v>
       </c>
       <c r="U116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B117">
-        <v>7</v>
-      </c>
-      <c r="D117" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="J117">
-        <v>2083563001</v>
+        <v>7202574493</v>
       </c>
       <c r="K117">
-        <v>1276</v>
+        <v>960</v>
       </c>
       <c r="L117">
-        <v>1276</v>
+        <v>960</v>
       </c>
       <c r="M117">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N117">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -12326,157 +12335,151 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="R117">
-        <v>43.822094</v>
+        <v>43.820385100000003</v>
       </c>
       <c r="S117">
-        <v>-111.778896</v>
+        <v>-111.7795297</v>
       </c>
       <c r="T117">
-        <v>0.18641182100000001</v>
+        <v>0.124274547</v>
       </c>
       <c r="U117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B118">
-        <v>7</v>
-      </c>
-      <c r="D118" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
         <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>494</v>
-      </c>
-      <c r="J118">
-        <v>2083563001</v>
+        <v>480</v>
+      </c>
+      <c r="J118" t="s">
+        <v>464</v>
       </c>
       <c r="K118">
-        <v>1198</v>
+        <v>1010</v>
       </c>
       <c r="L118">
-        <v>1276</v>
+        <v>1010</v>
       </c>
       <c r="M118">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O118">
         <v>0</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q118" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="R118">
-        <v>43.822082999999999</v>
+        <v>43.823926299999997</v>
       </c>
       <c r="S118">
-        <v>-111.778657</v>
+        <v>-111.78717519999999</v>
       </c>
       <c r="T118">
         <v>0.18641182100000001</v>
       </c>
       <c r="U118">
-        <v>4</v>
-      </c>
-      <c r="V118" s="1" t="s">
-        <v>496</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
         <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J119" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K119">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="L119">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O119">
         <v>0</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="R119">
-        <v>43.823955300000002</v>
+        <v>43.8218453</v>
       </c>
       <c r="S119">
-        <v>-111.7875196</v>
+        <v>-111.7917922</v>
       </c>
       <c r="T119">
-        <v>0.18641182100000001</v>
+        <v>0.248549095</v>
       </c>
       <c r="U119">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B120">
-        <v>6</v>
-      </c>
-      <c r="D120" t="s">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="H120" t="s">
         <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J120" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K120">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="L120">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
         <v>100</v>
@@ -12485,25 +12488,22 @@
         <v>0</v>
       </c>
       <c r="P120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q120" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="R120">
-        <v>43.821815299999997</v>
+        <v>43.823955300000002</v>
       </c>
       <c r="S120">
-        <v>-111.77714949999999</v>
+        <v>-111.7875196</v>
       </c>
       <c r="T120">
         <v>0.18641182100000001</v>
       </c>
       <c r="U120">
         <v>4</v>
-      </c>
-      <c r="V120" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
@@ -12766,9 +12766,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V123" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:V123" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V125">
+      <sortCondition ref="D1:D123"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q88" r:id="rId1" xr:uid="{11B638D4-0A8A-4FB7-A015-EA462C0AC846}"/>
+    <hyperlink ref="Q95" r:id="rId1" xr:uid="{11B638D4-0A8A-4FB7-A015-EA462C0AC846}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12779,7 +12783,7 @@
   <dimension ref="A3:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B4" sqref="B4:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
